--- a/fechamento_2021/fechamento_setembro/GeralSetembro6.xlsx
+++ b/fechamento_2021/fechamento_setembro/GeralSetembro6.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_setembro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE0B376-F5BE-4D82-B5E6-7B97FC6E8A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FAF87316-E9A8-49A4-8126-6D0DDEF6AEC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$118</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="267">
   <si>
     <t>NU_NOTIFIC</t>
   </si>
@@ -246,9 +240,6 @@
     <t>Tosse, Febre</t>
   </si>
   <si>
-    <t>Tosse, Febre, Dor de Garganta, Outros</t>
-  </si>
-  <si>
     <t>Coriza, Tosse, Dor de Garganta</t>
   </si>
   <si>
@@ -264,27 +255,18 @@
     <t>Coletado</t>
   </si>
   <si>
-    <t>DAVID ANDERSON DA SILVA LISBOA</t>
-  </si>
-  <si>
     <t>Dor de Cabeca, Tosse, Febre</t>
   </si>
   <si>
     <t>ELIDA CRISTINA ALVES ALMEIDA</t>
   </si>
   <si>
-    <t>DEUSA MARIA RODRIGUES</t>
-  </si>
-  <si>
     <t>Coriza, Dor de Cabeca, Tosse</t>
   </si>
   <si>
     <t>Coriza, Dor de Cabeca, Tosse, Dor de Garganta</t>
   </si>
   <si>
-    <t>DANILO SANCHES PERES</t>
-  </si>
-  <si>
     <t>EUNICE FABIANE DE OLIVEIRA</t>
   </si>
   <si>
@@ -309,18 +291,12 @@
     <t>Coriza, Dor de Cabeca, Tosse, Febre, Dor de Garganta, Outros</t>
   </si>
   <si>
-    <t>Coriza, Dor de Cabeca, Febre, Outros</t>
-  </si>
-  <si>
     <t>Cura</t>
   </si>
   <si>
     <t>Descartado</t>
   </si>
   <si>
-    <t>Coriza, Tosse, Febre, Outros</t>
-  </si>
-  <si>
     <t>Dor de Cabeca, Outros</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Tosse, Febre</t>
   </si>
   <si>
-    <t>Coriza, Dor de Cabeca, Tosse, Febre</t>
-  </si>
-  <si>
     <t>Coriza, Tosse, Febre, Dor de Garganta</t>
   </si>
   <si>
@@ -375,9 +348,6 @@
     <t>Coriza, Tosse, Outros</t>
   </si>
   <si>
-    <t>Tosse, Febre, Outros</t>
-  </si>
-  <si>
     <t>FERNANDO MOREIRA PEREIRA</t>
   </si>
   <si>
@@ -390,12 +360,6 @@
     <t>Coriza, Tosse, Dispneia</t>
   </si>
   <si>
-    <t>DAVI MARINHO VIEIRA</t>
-  </si>
-  <si>
-    <t>DENIS FERREIRA DA SILVA</t>
-  </si>
-  <si>
     <t>Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca</t>
   </si>
   <si>
@@ -420,9 +384,6 @@
     <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca, Tosse, Dispneia, O</t>
   </si>
   <si>
-    <t>Coriza, Tosse, Febre, Dor de Garganta, Outros</t>
-  </si>
-  <si>
     <t>ERICK PEREIRA ANDRADE</t>
   </si>
   <si>
@@ -441,9 +402,6 @@
     <t>Coriza, Febre</t>
   </si>
   <si>
-    <t>Febre, Dor de Garganta</t>
-  </si>
-  <si>
     <t>FABIO BARBOSA DE CARVALHO</t>
   </si>
   <si>
@@ -456,9 +414,6 @@
     <t>FABRICIO MAURICIO DOS SANTOS</t>
   </si>
   <si>
-    <t>DIEGO FERREIRA MORAES DELFINO</t>
-  </si>
-  <si>
     <t>FABIANO BATISTA ALVIM</t>
   </si>
   <si>
@@ -474,27 +429,15 @@
     <t>ELIFAEL SOARES</t>
   </si>
   <si>
-    <t>EDHER LUIZ DA SILVA</t>
-  </si>
-  <si>
-    <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Febre</t>
-  </si>
-  <si>
     <t>GABRIELI CARVALHO SANTOS</t>
   </si>
   <si>
     <t>Coriza, Disturbios Olfativos, Tosse, Febre</t>
   </si>
   <si>
-    <t>DRAUSIO DE OLIVEIRA</t>
-  </si>
-  <si>
     <t>EDILEYNE PEREIRA CALLEGAS</t>
   </si>
   <si>
-    <t>DANIELE ALVES</t>
-  </si>
-  <si>
     <t>EDSON DOMINGUES</t>
   </si>
   <si>
@@ -516,24 +459,15 @@
     <t>Dor de Cabeca, Dispneia, Outros</t>
   </si>
   <si>
-    <t>Febre, Tosse, Dispneia</t>
-  </si>
-  <si>
     <t>Febre, Tosse, Coriza</t>
   </si>
   <si>
-    <t>Dispneia, Outros</t>
-  </si>
-  <si>
     <t>Dor de Cabeca, Coriza</t>
   </si>
   <si>
     <t>Tosse, Dispneia, Dor de Garganta</t>
   </si>
   <si>
-    <t>DAYANE DIAS GOMES</t>
-  </si>
-  <si>
     <t>FERNANDA GUEDES OLIVEIRA</t>
   </si>
   <si>
@@ -549,21 +483,12 @@
     <t>GIORGIONI CARLOS DOS SANTOS DAMASCENO</t>
   </si>
   <si>
-    <t>DANIELLY SANTOS DE SOUZA EZEQUIEL</t>
-  </si>
-  <si>
     <t>EDUARDA DE LIMA NARDI</t>
   </si>
   <si>
     <t>ENZO CASTELLI MOREIRA</t>
   </si>
   <si>
-    <t>DEIVISON DOS SANTOS CARNEIRO</t>
-  </si>
-  <si>
-    <t>DOUGLAS SAMPAIO SANTOS</t>
-  </si>
-  <si>
     <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca, Tosse, Febre, Disp</t>
   </si>
   <si>
@@ -573,9 +498,6 @@
     <t>ELIANA SANTOS GONCALVES BATISTA</t>
   </si>
   <si>
-    <t>DIEGO KAWAN CALIZAYA PAIRO</t>
-  </si>
-  <si>
     <t>Disturbios Gustativos, Dor de Cabeca, Febre, Dor de Garganta</t>
   </si>
   <si>
@@ -597,9 +519,6 @@
     <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Tosse, Febre, Dor de Garganta</t>
   </si>
   <si>
-    <t>EDELZITA ALVES DE OLIVEIRA DUARTE</t>
-  </si>
-  <si>
     <t>ELCIVAM ARAUJO MORAES</t>
   </si>
   <si>
@@ -615,9 +534,6 @@
     <t>ELISANGELA DE CASSIA ELIAS</t>
   </si>
   <si>
-    <t>DELZITO RODRIGUES DOS SANTOS</t>
-  </si>
-  <si>
     <t>ENZO ALVES PINTO</t>
   </si>
   <si>
@@ -627,9 +543,6 @@
     <t>GISELIA XAVIER DE OLIVEIRA</t>
   </si>
   <si>
-    <t>DAVI MIGUEL OLIVEIRA SILVERIO</t>
-  </si>
-  <si>
     <t>EDITE RODRIGUES DE JESUS</t>
   </si>
   <si>
@@ -639,12 +552,6 @@
     <t>Coriza, Febre, Dor de Garganta, Outros</t>
   </si>
   <si>
-    <t>DAYANA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>DANILO SANTOS OLIVEIRA</t>
-  </si>
-  <si>
     <t>FELIPE SILVA DO NASCIMENTO</t>
   </si>
   <si>
@@ -666,36 +573,18 @@
     <t>Coriza, Dor de Cabeca, Febre, Dor de Garganta</t>
   </si>
   <si>
-    <t>Dor de Cabeca, Tosse, Febre, Outros</t>
-  </si>
-  <si>
     <t>GIOVANI BENASSI</t>
   </si>
   <si>
     <t>ELAINE DE SOUZA</t>
   </si>
   <si>
-    <t>Febre</t>
-  </si>
-  <si>
     <t>Coriza, Dor de Cabeca, Tosse, Dispneia, Dor de Garganta</t>
   </si>
   <si>
     <t>GISLAINE OLIVEIRA DE CARVALHO</t>
   </si>
   <si>
-    <t>DANILO JOSE DA SILVA</t>
-  </si>
-  <si>
-    <t>Coriza, Tosse, Febre, Dispneia</t>
-  </si>
-  <si>
-    <t>DEBORAH MARIA MENEZES DA SILVA NERY</t>
-  </si>
-  <si>
-    <t>DAVID ISAC SOARES BRONSTEIN</t>
-  </si>
-  <si>
     <t>GENICE DE PINHO MONTEIRO</t>
   </si>
   <si>
@@ -732,67 +621,7 @@
     <t>Febre, Dor de Cabeca</t>
   </si>
   <si>
-    <t>DANIELLE DA SILVA CACEMIRO</t>
-  </si>
-  <si>
-    <t>DANIELMA SILVA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>Febre, Tosse, Disturbios Gustativos, Disturbios Olfativos</t>
-  </si>
-  <si>
-    <t>DANILO PASTORE NUNES</t>
-  </si>
-  <si>
     <t>Dispneia, Tosse, Dor de Cabeca</t>
-  </si>
-  <si>
-    <t>DANILO SILVA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>DAVI MARCOS CESAR</t>
-  </si>
-  <si>
-    <t>DAVID RESENDE CAVALCANTI</t>
-  </si>
-  <si>
-    <t>DAYANE HIROMI KAMIYA</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Dispneia, Dor de Cabeca, Coriza</t>
-  </si>
-  <si>
-    <t>DEBORA DE ARAUJO LIMA</t>
-  </si>
-  <si>
-    <t>DEBORA FARIAS DA MATA</t>
-  </si>
-  <si>
-    <t>Tosse, Dispneia, Disturbios Olfativos</t>
-  </si>
-  <si>
-    <t>DELMARIA MAGALHAES PORTO DA SILVA</t>
-  </si>
-  <si>
-    <t>DEYVISSON ARAUJO SOUZA</t>
-  </si>
-  <si>
-    <t>DIOGENES LUCAS VIEIRA CARVALHO</t>
-  </si>
-  <si>
-    <t>DIOGO LINS ALENCAR</t>
-  </si>
-  <si>
-    <t>DOUGLAS PABLO CHAVES SANTOS</t>
-  </si>
-  <si>
-    <t>DOUGLAS PAULINO DA SILVA</t>
-  </si>
-  <si>
-    <t>ED WILKISON NASCIMENTO SILVA</t>
-  </si>
-  <si>
-    <t>Dispneia, Tosse, Disturbios Olfativos, Disturbios Gustativos</t>
   </si>
   <si>
     <t>EDIMILSON OLINDO DA SILVA</t>
@@ -999,7 +828,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1094,7 +923,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1146,7 +975,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1340,18 +1169,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02542348-2930-4805-8CC0-C76E1896688B}">
-  <dimension ref="A1:BI156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+      <selection activeCell="A2" sqref="A2:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,25 +1436,25 @@
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3521101129015</v>
+        <v>3521101077226</v>
       </c>
       <c r="B2" s="3">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3">
-        <v>30198</v>
+        <v>32000</v>
       </c>
       <c r="E2" s="3">
-        <v>44458</v>
+        <v>44451</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2">
-        <v>2102651510</v>
+        <v>2102651708</v>
       </c>
       <c r="H2" s="3">
         <v>44461</v>
@@ -1634,7 +1463,7 @@
         <v>63</v>
       </c>
       <c r="J2" s="3">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>64</v>
@@ -1649,13 +1478,13 @@
         <v>66</v>
       </c>
       <c r="AN2" s="3">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>69</v>
@@ -1666,28 +1495,28 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>352199914172</v>
+        <v>352199994884</v>
       </c>
       <c r="B3" s="3">
         <v>44448</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3">
-        <v>35101</v>
+        <v>28549</v>
       </c>
       <c r="E3" s="3">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="G3" s="2">
-        <v>2102617104</v>
+        <v>2102597466</v>
       </c>
       <c r="H3" s="3">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>63</v>
@@ -1714,7 +1543,7 @@
         <v>64</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="BH3" s="2" t="s">
         <v>69</v>
@@ -1725,34 +1554,34 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3521101245603</v>
+        <v>3521101563106</v>
       </c>
       <c r="B4" s="3">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="3">
-        <v>44057</v>
+        <v>29956</v>
       </c>
       <c r="E4" s="3">
-        <v>44459</v>
+        <v>44464</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2">
-        <v>2102647510</v>
+        <v>2102647492</v>
       </c>
       <c r="H4" s="3">
-        <v>44462</v>
+        <v>44467</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J4" s="3">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>64</v>
@@ -1767,7 +1596,7 @@
         <v>66</v>
       </c>
       <c r="AN4" s="3">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>64</v>
@@ -1784,34 +1613,34 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>352199659300</v>
+        <v>352199575990</v>
       </c>
       <c r="B5" s="3">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="D5" s="3">
-        <v>31826</v>
+        <v>27860</v>
       </c>
       <c r="E5" s="3">
-        <v>44437</v>
+        <v>44439</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="G5" s="2">
-        <v>2102586945</v>
+        <v>2102573223</v>
       </c>
       <c r="H5" s="3">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J5" s="3">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>64</v>
@@ -1826,13 +1655,22 @@
         <v>66</v>
       </c>
       <c r="AN5" s="3">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="AO5" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="BD5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>44461</v>
+      </c>
       <c r="BG5" s="2" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="BH5" s="2" t="s">
         <v>69</v>
@@ -1843,34 +1681,34 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3521101733324</v>
+        <v>352199535653</v>
       </c>
       <c r="B6" s="3">
-        <v>44468</v>
+        <v>44441</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D6" s="3">
-        <v>33543</v>
+        <v>33583</v>
       </c>
       <c r="E6" s="3">
-        <v>44463</v>
+        <v>44439</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="G6" s="2">
-        <v>2102677713</v>
+        <v>2102586329</v>
       </c>
       <c r="H6" s="3">
-        <v>44468</v>
+        <v>44442</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J6" s="3">
-        <v>44467</v>
+        <v>44441</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>64</v>
@@ -1885,13 +1723,13 @@
         <v>66</v>
       </c>
       <c r="AN6" s="3">
-        <v>44467</v>
+        <v>44441</v>
       </c>
       <c r="AO6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG6" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="BH6" s="2" t="s">
         <v>69</v>
@@ -1902,34 +1740,34 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>352199412119</v>
+        <v>3521101133535</v>
       </c>
       <c r="B7" s="3">
-        <v>44440</v>
+        <v>44461</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D7" s="3">
-        <v>33973</v>
+        <v>24726</v>
       </c>
       <c r="E7" s="3">
-        <v>44437</v>
+        <v>44460</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2">
-        <v>2102586387</v>
+        <v>2102647390</v>
       </c>
       <c r="H7" s="3">
-        <v>44441</v>
+        <v>44461</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J7" s="3">
-        <v>44440</v>
+        <v>44461</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>64</v>
@@ -1944,13 +1782,13 @@
         <v>66</v>
       </c>
       <c r="AN7" s="3">
-        <v>44440</v>
+        <v>44461</v>
       </c>
       <c r="AO7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="BH7" s="2" t="s">
         <v>69</v>
@@ -1961,34 +1799,34 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3521100560422</v>
+        <v>352199528059</v>
       </c>
       <c r="B8" s="3">
-        <v>44455</v>
+        <v>44441</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="D8" s="3">
-        <v>29698</v>
+        <v>28162</v>
       </c>
       <c r="E8" s="3">
-        <v>44561</v>
+        <v>44438</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="G8" s="2">
-        <v>2102262288</v>
+        <v>2102586347</v>
       </c>
       <c r="H8" s="3">
-        <v>44455</v>
+        <v>44442</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J8" s="3">
-        <v>44455</v>
+        <v>44441</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>64</v>
@@ -2003,13 +1841,13 @@
         <v>66</v>
       </c>
       <c r="AN8" s="3">
-        <v>44455</v>
+        <v>44441</v>
       </c>
       <c r="AO8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="BH8" s="2" t="s">
         <v>69</v>
@@ -2020,34 +1858,34 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3521101588342</v>
+        <v>352199439369</v>
       </c>
       <c r="B9" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D9" s="3">
-        <v>34499</v>
+        <v>30635</v>
       </c>
       <c r="E9" s="3">
-        <v>44463</v>
+        <v>44439</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="G9" s="2">
-        <v>2102647486</v>
+        <v>2102593461</v>
       </c>
       <c r="H9" s="3">
-        <v>44467</v>
+        <v>44441</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>64</v>
@@ -2062,13 +1900,13 @@
         <v>66</v>
       </c>
       <c r="AN9" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="AO9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BH9" s="2" t="s">
         <v>69</v>
@@ -2079,25 +1917,25 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>352199533000</v>
+        <v>352199519052</v>
       </c>
       <c r="B10" s="3">
         <v>44441</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="D10" s="3">
-        <v>34795</v>
+        <v>32263</v>
       </c>
       <c r="E10" s="3">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G10" s="2">
-        <v>2102586349</v>
+        <v>2102581111</v>
       </c>
       <c r="H10" s="3">
         <v>44442</v>
@@ -2106,7 +1944,7 @@
         <v>63</v>
       </c>
       <c r="J10" s="3">
-        <v>44410</v>
+        <v>44441</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>64</v>
@@ -2121,13 +1959,13 @@
         <v>66</v>
       </c>
       <c r="AN10" s="3">
-        <v>44410</v>
+        <v>44441</v>
       </c>
       <c r="AO10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG10" s="2" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="BH10" s="2" t="s">
         <v>69</v>
@@ -2138,34 +1976,34 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>352199908011</v>
+        <v>3521101248093</v>
       </c>
       <c r="B11" s="3">
-        <v>44447</v>
+        <v>44462</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="D11" s="3">
-        <v>23296</v>
+        <v>35883</v>
       </c>
       <c r="E11" s="3">
-        <v>44444</v>
+        <v>44457</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2">
-        <v>2102581058</v>
+        <v>2102638985</v>
       </c>
       <c r="H11" s="3">
-        <v>44448</v>
+        <v>44462</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J11" s="3">
-        <v>44447</v>
+        <v>44462</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>64</v>
@@ -2180,13 +2018,13 @@
         <v>66</v>
       </c>
       <c r="AN11" s="3">
-        <v>44447</v>
+        <v>44462</v>
       </c>
       <c r="AO11" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG11" s="2" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="BH11" s="2" t="s">
         <v>69</v>
@@ -2197,34 +2035,34 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3521100766560</v>
+        <v>352199905439</v>
       </c>
       <c r="B12" s="3">
-        <v>44456</v>
+        <v>44447</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="D12" s="3">
-        <v>43371</v>
+        <v>31453</v>
       </c>
       <c r="E12" s="3">
-        <v>44449</v>
+        <v>44445</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="G12" s="2">
-        <v>2102647523</v>
+        <v>2102616485</v>
       </c>
       <c r="H12" s="3">
-        <v>44457</v>
+        <v>44448</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J12" s="3">
-        <v>44456</v>
+        <v>44447</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>64</v>
@@ -2239,13 +2077,13 @@
         <v>66</v>
       </c>
       <c r="AN12" s="3">
-        <v>44456</v>
+        <v>44447</v>
       </c>
       <c r="AO12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG12" s="2" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="BH12" s="2" t="s">
         <v>69</v>
@@ -2256,34 +2094,34 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3521101536853</v>
+        <v>3521101197453</v>
       </c>
       <c r="B13" s="3">
-        <v>44466</v>
+        <v>44462</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="D13" s="3">
-        <v>43570</v>
+        <v>43303</v>
       </c>
       <c r="E13" s="3">
-        <v>44459</v>
+        <v>44457</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="G13" s="2">
-        <v>2102687625</v>
+        <v>2102651476</v>
       </c>
       <c r="H13" s="3">
-        <v>44466</v>
+        <v>44462</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J13" s="3">
-        <v>44466</v>
+        <v>44462</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>64</v>
@@ -2298,13 +2136,13 @@
         <v>66</v>
       </c>
       <c r="AN13" s="3">
-        <v>44466</v>
+        <v>44462</v>
       </c>
       <c r="AO13" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG13" s="2" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="BH13" s="2" t="s">
         <v>69</v>
@@ -2315,34 +2153,34 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3521100546922</v>
+        <v>3521100722890</v>
       </c>
       <c r="B14" s="3">
-        <v>44454</v>
+        <v>44456</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D14" s="3">
-        <v>35478</v>
+        <v>33454</v>
       </c>
       <c r="E14" s="3">
-        <v>44451</v>
+        <v>44455</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G14" s="2">
-        <v>2102597548</v>
+        <v>2102616917</v>
       </c>
       <c r="H14" s="3">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="3">
-        <v>44454</v>
+        <v>44456</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>64</v>
@@ -2357,13 +2195,13 @@
         <v>66</v>
       </c>
       <c r="AN14" s="3">
-        <v>44454</v>
+        <v>44456</v>
       </c>
       <c r="AO14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG14" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="BH14" s="2" t="s">
         <v>69</v>
@@ -2374,34 +2212,34 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3521101734465</v>
+        <v>3521100668734</v>
       </c>
       <c r="B15" s="3">
-        <v>44468</v>
+        <v>44455</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3">
-        <v>44229</v>
+        <v>40087</v>
       </c>
       <c r="E15" s="3">
-        <v>44464</v>
+        <v>44452</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2">
-        <v>2102677680</v>
+        <v>2102651572</v>
       </c>
       <c r="H15" s="3">
-        <v>44468</v>
+        <v>44456</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J15" s="3">
-        <v>44468</v>
+        <v>44455</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>64</v>
@@ -2416,13 +2254,13 @@
         <v>66</v>
       </c>
       <c r="AN15" s="3">
-        <v>44468</v>
+        <v>44455</v>
       </c>
       <c r="AO15" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG15" s="2" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="BH15" s="2" t="s">
         <v>69</v>
@@ -2433,34 +2271,34 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>352199720005</v>
+        <v>3521101902825</v>
       </c>
       <c r="B16" s="3">
-        <v>44444</v>
+        <v>44468</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D16" s="3">
-        <v>34506</v>
+        <v>16504</v>
       </c>
       <c r="E16" s="3">
-        <v>44442</v>
+        <v>44464</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="G16" s="2">
-        <v>2102590342</v>
+        <v>2102691058</v>
       </c>
       <c r="H16" s="3">
-        <v>44445</v>
+        <v>44468</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J16" s="3">
-        <v>44444</v>
+        <v>44468</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>64</v>
@@ -2475,13 +2313,13 @@
         <v>66</v>
       </c>
       <c r="AN16" s="3">
-        <v>44444</v>
+        <v>44468</v>
       </c>
       <c r="AO16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG16" s="2" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="BH16" s="2" t="s">
         <v>69</v>
@@ -2492,25 +2330,25 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3521101580100</v>
+        <v>3521101698607</v>
       </c>
       <c r="B17" s="3">
         <v>44466</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D17" s="3">
-        <v>30233</v>
+        <v>19976</v>
       </c>
       <c r="E17" s="3">
-        <v>44464</v>
+        <v>44462</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G17" s="2">
-        <v>2102437686</v>
+        <v>2102437678</v>
       </c>
       <c r="H17" s="3">
         <v>44467</v>
@@ -2540,7 +2378,7 @@
         <v>64</v>
       </c>
       <c r="BG17" s="2" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="BH17" s="2" t="s">
         <v>69</v>
@@ -2551,28 +2389,28 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3521101166415</v>
+        <v>3521101139467</v>
       </c>
       <c r="B18" s="3">
         <v>44461</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D18" s="3">
-        <v>31473</v>
+        <v>28418</v>
       </c>
       <c r="E18" s="3">
         <v>44458</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2">
-        <v>2102651403</v>
+        <v>2102647383</v>
       </c>
       <c r="H18" s="3">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>63</v>
@@ -2599,7 +2437,7 @@
         <v>64</v>
       </c>
       <c r="BG18" s="2" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="BH18" s="2" t="s">
         <v>69</v>
@@ -2610,28 +2448,28 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>352199732185</v>
+        <v>352199803147</v>
       </c>
       <c r="B19" s="3">
         <v>44445</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="D19" s="3">
-        <v>31384</v>
+        <v>32881</v>
       </c>
       <c r="E19" s="3">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="G19" s="2">
-        <v>2102593406</v>
+        <v>2102593330</v>
       </c>
       <c r="H19" s="3">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>63</v>
@@ -2658,7 +2496,7 @@
         <v>64</v>
       </c>
       <c r="BG19" s="2" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="BH19" s="2" t="s">
         <v>69</v>
@@ -2669,34 +2507,34 @@
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>352199766369</v>
+        <v>3521101443574</v>
       </c>
       <c r="B20" s="3">
-        <v>44445</v>
+        <v>44464</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="D20" s="3">
-        <v>39746</v>
+        <v>28369</v>
       </c>
       <c r="E20" s="3">
-        <v>44443</v>
+        <v>44462</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="G20" s="2">
-        <v>2102593343</v>
+        <v>2102677806</v>
       </c>
       <c r="H20" s="3">
-        <v>44445</v>
+        <v>44466</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J20" s="3">
-        <v>44445</v>
+        <v>44464</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>64</v>
@@ -2711,13 +2549,13 @@
         <v>66</v>
       </c>
       <c r="AN20" s="3">
-        <v>44445</v>
+        <v>44464</v>
       </c>
       <c r="AO20" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG20" s="2" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="BH20" s="2" t="s">
         <v>69</v>
@@ -2728,34 +2566,34 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>352199321701</v>
+        <v>3521100903549</v>
       </c>
       <c r="B21" s="3">
-        <v>44440</v>
+        <v>44459</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="D21" s="3">
-        <v>30862</v>
+        <v>33013</v>
       </c>
       <c r="E21" s="3">
-        <v>44436</v>
+        <v>44456</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="G21" s="2">
-        <v>2102590408</v>
+        <v>2102664995</v>
       </c>
       <c r="H21" s="3">
-        <v>44440</v>
+        <v>44459</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J21" s="3">
-        <v>44440</v>
+        <v>44459</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>64</v>
@@ -2770,13 +2608,13 @@
         <v>66</v>
       </c>
       <c r="AN21" s="3">
-        <v>44440</v>
+        <v>44459</v>
       </c>
       <c r="AO21" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG21" s="2" t="s">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="BH21" s="2" t="s">
         <v>69</v>
@@ -2787,34 +2625,34 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3521101733470</v>
+        <v>3521101355289</v>
       </c>
       <c r="B22" s="3">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="D22" s="3">
-        <v>33820</v>
+        <v>28657</v>
       </c>
       <c r="E22" s="3">
+        <v>44459</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2102676754</v>
+      </c>
+      <c r="H22" s="3">
         <v>44464</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2102677674</v>
-      </c>
-      <c r="H22" s="3">
-        <v>44468</v>
-      </c>
       <c r="I22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J22" s="3">
-        <v>44467</v>
+        <v>44463</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>64</v>
@@ -2829,13 +2667,13 @@
         <v>66</v>
       </c>
       <c r="AN22" s="3">
-        <v>44467</v>
+        <v>44463</v>
       </c>
       <c r="AO22" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG22" s="2" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="BH22" s="2" t="s">
         <v>69</v>
@@ -2846,34 +2684,34 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3521101303144</v>
+        <v>3521101800853</v>
       </c>
       <c r="B23" s="3">
+        <v>44468</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="3">
+        <v>21558</v>
+      </c>
+      <c r="E23" s="3">
         <v>44462</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="3">
-        <v>29840</v>
-      </c>
-      <c r="E23" s="3">
-        <v>44459</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="G23" s="2">
-        <v>2102676798</v>
+        <v>2102437689</v>
       </c>
       <c r="H23" s="3">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J23" s="3">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>64</v>
@@ -2888,13 +2726,13 @@
         <v>66</v>
       </c>
       <c r="AN23" s="3">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="AO23" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG23" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="BH23" s="2" t="s">
         <v>69</v>
@@ -2905,34 +2743,34 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>352199865261</v>
+        <v>3521100547994</v>
       </c>
       <c r="B24" s="3">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="D24" s="3">
-        <v>27682</v>
+        <v>33002</v>
       </c>
       <c r="E24" s="3">
-        <v>44445</v>
+        <v>44450</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G24" s="2">
-        <v>2102616491</v>
+        <v>2102617082</v>
       </c>
       <c r="H24" s="3">
-        <v>44448</v>
+        <v>44455</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J24" s="3">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>64</v>
@@ -2947,13 +2785,13 @@
         <v>66</v>
       </c>
       <c r="AN24" s="3">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="AO24" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG24" s="2" t="s">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="BH24" s="2" t="s">
         <v>69</v>
@@ -2964,25 +2802,25 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3521101489263</v>
+        <v>3521101480192</v>
       </c>
       <c r="B25" s="3">
         <v>44466</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D25" s="3">
-        <v>21141</v>
+        <v>21672</v>
       </c>
       <c r="E25" s="3">
-        <v>44463</v>
+        <v>44461</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="G25" s="2">
-        <v>2102664940</v>
+        <v>2102647480</v>
       </c>
       <c r="H25" s="3">
         <v>44466</v>
@@ -3012,7 +2850,7 @@
         <v>64</v>
       </c>
       <c r="BG25" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="BH25" s="2" t="s">
         <v>69</v>
@@ -3023,34 +2861,34 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3521100776653</v>
+        <v>352199633197</v>
       </c>
       <c r="B26" s="3">
-        <v>44457</v>
+        <v>44442</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="D26" s="3">
-        <v>32687</v>
+        <v>34865</v>
       </c>
       <c r="E26" s="3">
-        <v>44451</v>
+        <v>44439</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="G26" s="2">
-        <v>2102616576</v>
+        <v>2102586925</v>
       </c>
       <c r="H26" s="3">
-        <v>44449</v>
+        <v>44443</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J26" s="3">
-        <v>44457</v>
+        <v>44442</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>64</v>
@@ -3065,13 +2903,13 @@
         <v>66</v>
       </c>
       <c r="AN26" s="3">
-        <v>44457</v>
+        <v>44442</v>
       </c>
       <c r="AO26" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG26" s="2" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="BH26" s="2" t="s">
         <v>69</v>
@@ -3082,34 +2920,34 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>3521100550241</v>
+        <v>3521101031575</v>
       </c>
       <c r="B27" s="3">
-        <v>44454</v>
+        <v>44460</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="D27" s="3">
-        <v>26320</v>
+        <v>13400</v>
       </c>
       <c r="E27" s="3">
-        <v>44451</v>
+        <v>44457</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="G27" s="2">
-        <v>2102651455</v>
+        <v>2102587469</v>
       </c>
       <c r="H27" s="3">
-        <v>44455</v>
+        <v>44461</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J27" s="3">
-        <v>44454</v>
+        <v>44460</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>64</v>
@@ -3117,20 +2955,35 @@
       <c r="L27" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="AH27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>44460</v>
+      </c>
       <c r="AL27" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AN27" s="3">
-        <v>44454</v>
-      </c>
-      <c r="AO27" s="2" t="s">
+        <v>44460</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT27" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU27" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG27" s="2" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="BH27" s="2" t="s">
         <v>69</v>
@@ -3141,34 +2994,34 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>352199333529</v>
+        <v>3521101843562</v>
       </c>
       <c r="B28" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="D28" s="3">
-        <v>35902</v>
+        <v>32613</v>
       </c>
       <c r="E28" s="3">
-        <v>44436</v>
+        <v>44466</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>2102590413</v>
+        <v>2102677834</v>
       </c>
       <c r="H28" s="3">
-        <v>44440</v>
+        <v>44469</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J28" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>64</v>
@@ -3183,13 +3036,13 @@
         <v>66</v>
       </c>
       <c r="AN28" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="AO28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG28" s="2" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="BH28" s="2" t="s">
         <v>69</v>
@@ -3200,34 +3053,34 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>3521100978924</v>
+        <v>3521101481211</v>
       </c>
       <c r="B29" s="3">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D29" s="3">
-        <v>33834</v>
+        <v>27472</v>
       </c>
       <c r="E29" s="3">
-        <v>44458</v>
+        <v>44463</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G29" s="2">
-        <v>2102638892</v>
+        <v>2102682784</v>
       </c>
       <c r="H29" s="3">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J29" s="3">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>64</v>
@@ -3242,13 +3095,13 @@
         <v>66</v>
       </c>
       <c r="AN29" s="3">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="AO29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG29" s="2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="BH29" s="2" t="s">
         <v>69</v>
@@ -3259,34 +3112,34 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3521101357358</v>
+        <v>3521101779172</v>
       </c>
       <c r="B30" s="3">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D30" s="3">
-        <v>40696</v>
+        <v>29543</v>
       </c>
       <c r="E30" s="3">
-        <v>44456</v>
+        <v>44465</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G30" s="2">
-        <v>2102676777</v>
+        <v>2102691060</v>
       </c>
       <c r="H30" s="3">
-        <v>44464</v>
+        <v>44468</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J30" s="3">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>64</v>
@@ -3301,13 +3154,13 @@
         <v>66</v>
       </c>
       <c r="AN30" s="3">
-        <v>44463</v>
+        <v>44467</v>
       </c>
       <c r="AO30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG30" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="BH30" s="2" t="s">
         <v>69</v>
@@ -3318,34 +3171,34 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>352199996026</v>
+        <v>3521101782888</v>
       </c>
       <c r="B31" s="3">
-        <v>44448</v>
+        <v>44467</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="D31" s="3">
-        <v>35092</v>
+        <v>37162</v>
       </c>
       <c r="E31" s="3">
-        <v>44444</v>
+        <v>44464</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G31" s="2">
-        <v>2102617114</v>
+        <v>2102691039</v>
       </c>
       <c r="H31" s="3">
-        <v>44449</v>
+        <v>44468</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J31" s="3">
-        <v>44448</v>
+        <v>44467</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>64</v>
@@ -3360,13 +3213,13 @@
         <v>66</v>
       </c>
       <c r="AN31" s="3">
-        <v>44448</v>
+        <v>44467</v>
       </c>
       <c r="AO31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG31" s="2" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="BH31" s="2" t="s">
         <v>69</v>
@@ -3377,34 +3230,34 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>352199915664</v>
+        <v>3521100730404</v>
       </c>
       <c r="B32" s="3">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="D32" s="3">
-        <v>33665</v>
+        <v>41032</v>
       </c>
       <c r="E32" s="3">
-        <v>44440</v>
+        <v>44455</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="G32" s="2">
-        <v>2102613639</v>
+        <v>2102597522</v>
       </c>
       <c r="H32" s="3">
-        <v>44452</v>
+        <v>44457</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J32" s="3">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>64</v>
@@ -3419,13 +3272,13 @@
         <v>66</v>
       </c>
       <c r="AN32" s="3">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="AO32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG32" s="2" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="BH32" s="2" t="s">
         <v>69</v>
@@ -3436,34 +3289,34 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>352199401068</v>
+        <v>3521101511619</v>
       </c>
       <c r="B33" s="3">
-        <v>44440</v>
+        <v>44466</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="D33" s="3">
-        <v>38547</v>
+        <v>40875</v>
       </c>
       <c r="E33" s="3">
-        <v>44432</v>
+        <v>44463</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="G33" s="2">
-        <v>2102573184</v>
+        <v>2102162387</v>
       </c>
       <c r="H33" s="3">
-        <v>44441</v>
+        <v>44467</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J33" s="3">
-        <v>44440</v>
+        <v>44466</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>64</v>
@@ -3478,13 +3331,13 @@
         <v>66</v>
       </c>
       <c r="AN33" s="3">
-        <v>44440</v>
+        <v>44466</v>
       </c>
       <c r="AO33" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG33" s="2" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="BH33" s="2" t="s">
         <v>69</v>
@@ -3495,34 +3348,34 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>352199647252</v>
+        <v>3521101285086</v>
       </c>
       <c r="B34" s="3">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="D34" s="3">
-        <v>31132</v>
+        <v>36654</v>
       </c>
       <c r="E34" s="3">
-        <v>44438</v>
+        <v>44459</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="G34" s="2">
-        <v>2102593436</v>
+        <v>2102437732</v>
       </c>
       <c r="H34" s="3">
-        <v>44443</v>
+        <v>44463</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J34" s="3">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>64</v>
@@ -3537,13 +3390,13 @@
         <v>66</v>
       </c>
       <c r="AN34" s="3">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="AO34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG34" s="2" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="BH34" s="2" t="s">
         <v>69</v>
@@ -3554,34 +3407,34 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3521101305376</v>
+        <v>3521101855268</v>
       </c>
       <c r="B35" s="3">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="D35" s="3">
-        <v>35125</v>
+        <v>42852</v>
       </c>
       <c r="E35" s="3">
-        <v>44458</v>
+        <v>44466</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="G35" s="2">
-        <v>2102676796</v>
+        <v>2102682732</v>
       </c>
       <c r="H35" s="3">
-        <v>44463</v>
+        <v>44469</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J35" s="3">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>64</v>
@@ -3596,13 +3449,13 @@
         <v>66</v>
       </c>
       <c r="AN35" s="3">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="AO35" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG35" s="2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="BH35" s="2" t="s">
         <v>69</v>
@@ -3613,34 +3466,34 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3521101061519</v>
+        <v>352199515878</v>
       </c>
       <c r="B36" s="3">
-        <v>44459</v>
+        <v>44441</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="D36" s="3">
-        <v>22310</v>
+        <v>29704</v>
       </c>
       <c r="E36" s="3">
-        <v>44454</v>
+        <v>44438</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G36" s="2">
-        <v>2102648307</v>
+        <v>2102593473</v>
       </c>
       <c r="H36" s="3">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J36" s="3">
-        <v>44459</v>
+        <v>44441</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>64</v>
@@ -3655,13 +3508,13 @@
         <v>66</v>
       </c>
       <c r="AN36" s="3">
-        <v>44459</v>
+        <v>44441</v>
       </c>
       <c r="AO36" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG36" s="2" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="BH36" s="2" t="s">
         <v>69</v>
@@ -3672,34 +3525,34 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>352199781424</v>
+        <v>3521100886600</v>
       </c>
       <c r="B37" s="3">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="D37" s="3">
-        <v>29862</v>
+        <v>43914</v>
       </c>
       <c r="E37" s="3">
-        <v>44440</v>
+        <v>44455</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="G37" s="2">
-        <v>2102590353</v>
+        <v>2102639162</v>
       </c>
       <c r="H37" s="3">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J37" s="3">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>64</v>
@@ -3714,13 +3567,13 @@
         <v>66</v>
       </c>
       <c r="AN37" s="3">
-        <v>44445</v>
+        <v>44459</v>
       </c>
       <c r="AO37" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG37" s="2" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="BH37" s="2" t="s">
         <v>69</v>
@@ -3731,34 +3584,34 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3521101433796</v>
+        <v>352199938743</v>
       </c>
       <c r="B38" s="3">
-        <v>44464</v>
+        <v>44448</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="D38" s="3">
-        <v>25301</v>
+        <v>32996</v>
       </c>
       <c r="E38" s="3">
-        <v>44460</v>
+        <v>44445</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G38" s="2">
-        <v>2102676972</v>
+        <v>2102593380</v>
       </c>
       <c r="H38" s="3">
-        <v>44466</v>
+        <v>44448</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J38" s="3">
-        <v>44464</v>
+        <v>44448</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>64</v>
@@ -3773,13 +3626,13 @@
         <v>66</v>
       </c>
       <c r="AN38" s="3">
-        <v>44464</v>
+        <v>44448</v>
       </c>
       <c r="AO38" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG38" s="2" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="BH38" s="2" t="s">
         <v>69</v>
@@ -3790,34 +3643,34 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>3521101035969</v>
+        <v>3521101851365</v>
       </c>
       <c r="B39" s="3">
-        <v>44460</v>
+        <v>44468</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="D39" s="3">
-        <v>30213</v>
+        <v>36071</v>
       </c>
       <c r="E39" s="3">
-        <v>44457</v>
+        <v>44464</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G39" s="2">
-        <v>2102554283</v>
+        <v>2102676905</v>
       </c>
       <c r="H39" s="3">
-        <v>44440</v>
+        <v>44469</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J39" s="3">
-        <v>44460</v>
+        <v>44468</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>64</v>
@@ -3832,13 +3685,13 @@
         <v>66</v>
       </c>
       <c r="AN39" s="3">
-        <v>44460</v>
+        <v>44468</v>
       </c>
       <c r="AO39" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG39" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="BH39" s="2" t="s">
         <v>69</v>
@@ -3849,34 +3702,34 @@
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3521101077226</v>
+        <v>352199582241</v>
       </c>
       <c r="B40" s="3">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="D40" s="3">
-        <v>32000</v>
+        <v>26919</v>
       </c>
       <c r="E40" s="3">
-        <v>44451</v>
+        <v>44441</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="G40" s="2">
-        <v>2102651708</v>
+        <v>2102593437</v>
       </c>
       <c r="H40" s="3">
-        <v>44461</v>
+        <v>44442</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J40" s="3">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>64</v>
@@ -3891,13 +3744,13 @@
         <v>66</v>
       </c>
       <c r="AN40" s="3">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="AO40" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG40" s="2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="BH40" s="2" t="s">
         <v>69</v>
@@ -3908,34 +3761,34 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>352199994884</v>
+        <v>352199876997</v>
       </c>
       <c r="B41" s="3">
+        <v>44447</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="3">
+        <v>25808</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44439</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2102444336</v>
+      </c>
+      <c r="H41" s="3">
         <v>44448</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D41" s="3">
-        <v>28549</v>
-      </c>
-      <c r="E41" s="3">
-        <v>44446</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G41" s="2">
-        <v>2102597466</v>
-      </c>
-      <c r="H41" s="3">
-        <v>44449</v>
-      </c>
       <c r="I41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J41" s="3">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>64</v>
@@ -3950,13 +3803,22 @@
         <v>66</v>
       </c>
       <c r="AN41" s="3">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="AO41" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="BD41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF41" s="3">
+        <v>44460</v>
+      </c>
       <c r="BG41" s="2" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="BH41" s="2" t="s">
         <v>69</v>
@@ -3967,34 +3829,34 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3521101563106</v>
+        <v>3521101391877</v>
       </c>
       <c r="B42" s="3">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D42" s="3">
-        <v>29956</v>
+        <v>29229</v>
       </c>
       <c r="E42" s="3">
+        <v>44460</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2102665026</v>
+      </c>
+      <c r="H42" s="3">
         <v>44464</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2102647492</v>
-      </c>
-      <c r="H42" s="3">
-        <v>44467</v>
-      </c>
       <c r="I42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J42" s="3">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>64</v>
@@ -4009,13 +3871,13 @@
         <v>66</v>
       </c>
       <c r="AN42" s="3">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="AO42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG42" s="2" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="BH42" s="2" t="s">
         <v>69</v>
@@ -4026,34 +3888,34 @@
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>352199575990</v>
+        <v>3521100665910</v>
       </c>
       <c r="B43" s="3">
-        <v>44442</v>
+        <v>44455</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3">
-        <v>27860</v>
+        <v>19298</v>
       </c>
       <c r="E43" s="3">
-        <v>44439</v>
+        <v>44452</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="G43" s="2">
-        <v>2102573223</v>
+        <v>2102651565</v>
       </c>
       <c r="H43" s="3">
-        <v>44442</v>
+        <v>44456</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J43" s="3">
-        <v>44442</v>
+        <v>44455</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>64</v>
@@ -4068,22 +3930,13 @@
         <v>66</v>
       </c>
       <c r="AN43" s="3">
-        <v>44442</v>
+        <v>44455</v>
       </c>
       <c r="AO43" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BD43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF43" s="3">
-        <v>44461</v>
-      </c>
       <c r="BG43" s="2" t="s">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="BH43" s="2" t="s">
         <v>69</v>
@@ -4094,34 +3947,34 @@
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>352199535653</v>
+        <v>3521100568706</v>
       </c>
       <c r="B44" s="3">
-        <v>44441</v>
+        <v>44455</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="D44" s="3">
-        <v>33583</v>
+        <v>20239</v>
       </c>
       <c r="E44" s="3">
-        <v>44439</v>
+        <v>44453</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="G44" s="2">
-        <v>2102586329</v>
+        <v>2102651356</v>
       </c>
       <c r="H44" s="3">
-        <v>44442</v>
+        <v>44456</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J44" s="3">
-        <v>44441</v>
+        <v>44455</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>64</v>
@@ -4136,13 +3989,13 @@
         <v>66</v>
       </c>
       <c r="AN44" s="3">
-        <v>44441</v>
+        <v>44455</v>
       </c>
       <c r="AO44" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG44" s="2" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="BH44" s="2" t="s">
         <v>69</v>
@@ -4153,34 +4006,34 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>3521101133535</v>
+        <v>352199602564</v>
       </c>
       <c r="B45" s="3">
-        <v>44461</v>
+        <v>44442</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="D45" s="3">
-        <v>24726</v>
+        <v>22715</v>
       </c>
       <c r="E45" s="3">
-        <v>44460</v>
+        <v>44438</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="G45" s="2">
-        <v>2102647390</v>
+        <v>2102506731</v>
       </c>
       <c r="H45" s="3">
-        <v>44461</v>
+        <v>44442</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J45" s="3">
-        <v>44461</v>
+        <v>44442</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>64</v>
@@ -4195,13 +4048,13 @@
         <v>66</v>
       </c>
       <c r="AN45" s="3">
-        <v>44461</v>
+        <v>44442</v>
       </c>
       <c r="AO45" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG45" s="2" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="BH45" s="2" t="s">
         <v>69</v>
@@ -4212,34 +4065,34 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>352199528059</v>
+        <v>3521101906070</v>
       </c>
       <c r="B46" s="3">
-        <v>44441</v>
+        <v>44469</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D46" s="3">
-        <v>28162</v>
+        <v>17132</v>
       </c>
       <c r="E46" s="3">
-        <v>44438</v>
+        <v>44468</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="G46" s="2">
-        <v>2102586347</v>
+        <v>2102677796</v>
       </c>
       <c r="H46" s="3">
-        <v>44442</v>
+        <v>44469</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J46" s="3">
-        <v>44441</v>
+        <v>44469</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>64</v>
@@ -4254,13 +4107,13 @@
         <v>66</v>
       </c>
       <c r="AN46" s="3">
-        <v>44441</v>
+        <v>44469</v>
       </c>
       <c r="AO46" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG46" s="2" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="BH46" s="2" t="s">
         <v>69</v>
@@ -4271,34 +4124,34 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>352199439369</v>
+        <v>3521101602757</v>
       </c>
       <c r="B47" s="3">
-        <v>44441</v>
+        <v>44466</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="D47" s="3">
-        <v>30635</v>
+        <v>30144</v>
       </c>
       <c r="E47" s="3">
-        <v>44439</v>
+        <v>44460</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="G47" s="2">
-        <v>2102593461</v>
+        <v>2102676813</v>
       </c>
       <c r="H47" s="3">
-        <v>44441</v>
+        <v>44467</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J47" s="3">
-        <v>44441</v>
+        <v>44466</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>64</v>
@@ -4313,13 +4166,13 @@
         <v>66</v>
       </c>
       <c r="AN47" s="3">
-        <v>44441</v>
+        <v>44466</v>
       </c>
       <c r="AO47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG47" s="2" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="BH47" s="2" t="s">
         <v>69</v>
@@ -4330,55 +4183,34 @@
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>352199519052</v>
+        <v>3521102702233</v>
       </c>
       <c r="B48" s="3">
-        <v>44441</v>
+        <v>44467</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="D48" s="3">
-        <v>32263</v>
+        <v>35391</v>
       </c>
       <c r="E48" s="3">
-        <v>44439</v>
+        <v>44462</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="G48" s="2">
-        <v>2102581111</v>
+        <v>2102629483</v>
       </c>
       <c r="H48" s="3">
-        <v>44442</v>
+        <v>44459</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J48" s="3">
-        <v>44441</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM48" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN48" s="3">
-        <v>44441</v>
-      </c>
-      <c r="AO48" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="BG48" s="2" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="BH48" s="2" t="s">
         <v>69</v>
@@ -4389,34 +4221,34 @@
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>3521101248093</v>
+        <v>3521101870272</v>
       </c>
       <c r="B49" s="3">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="D49" s="3">
-        <v>35883</v>
+        <v>30932</v>
       </c>
       <c r="E49" s="3">
-        <v>44457</v>
+        <v>44465</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G49" s="2">
-        <v>2102638985</v>
+        <v>2102682725</v>
       </c>
       <c r="H49" s="3">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J49" s="3">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>64</v>
@@ -4431,13 +4263,13 @@
         <v>66</v>
       </c>
       <c r="AN49" s="3">
-        <v>44462</v>
+        <v>44469</v>
       </c>
       <c r="AO49" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG49" s="2" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="BH49" s="2" t="s">
         <v>69</v>
@@ -4448,34 +4280,31 @@
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>352199905439</v>
+        <v>352199557003</v>
       </c>
       <c r="B50" s="3">
-        <v>44447</v>
+        <v>44442</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="D50" s="3">
-        <v>31453</v>
-      </c>
-      <c r="E50" s="3">
-        <v>44445</v>
+        <v>33353</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="G50" s="2">
-        <v>2102616485</v>
+        <v>2102554293</v>
       </c>
       <c r="H50" s="3">
-        <v>44448</v>
+        <v>44442</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J50" s="3">
-        <v>44447</v>
+        <v>44442</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>64</v>
@@ -4490,13 +4319,13 @@
         <v>66</v>
       </c>
       <c r="AN50" s="3">
-        <v>44447</v>
+        <v>44442</v>
       </c>
       <c r="AO50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG50" s="2" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="BH50" s="2" t="s">
         <v>69</v>
@@ -4507,34 +4336,34 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>3521101197453</v>
+        <v>352199397424</v>
       </c>
       <c r="B51" s="3">
-        <v>44462</v>
+        <v>44440</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="D51" s="3">
-        <v>43303</v>
+        <v>29634</v>
       </c>
       <c r="E51" s="3">
-        <v>44457</v>
+        <v>44437</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="G51" s="2">
-        <v>2102651476</v>
+        <v>2102593480</v>
       </c>
       <c r="H51" s="3">
-        <v>44462</v>
+        <v>44440</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J51" s="3">
-        <v>44462</v>
+        <v>44440</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>64</v>
@@ -4549,13 +4378,13 @@
         <v>66</v>
       </c>
       <c r="AN51" s="3">
-        <v>44462</v>
+        <v>44440</v>
       </c>
       <c r="AO51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG51" s="2" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="BH51" s="2" t="s">
         <v>69</v>
@@ -4566,34 +4395,34 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>3521100722890</v>
+        <v>3521100792409</v>
       </c>
       <c r="B52" s="3">
-        <v>44456</v>
+        <v>44457</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D52" s="3">
-        <v>33454</v>
+        <v>26465</v>
       </c>
       <c r="E52" s="3">
-        <v>44455</v>
+        <v>44453</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="G52" s="2">
-        <v>2102616917</v>
+        <v>2102651386</v>
       </c>
       <c r="H52" s="3">
-        <v>44456</v>
+        <v>44459</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J52" s="3">
-        <v>44456</v>
+        <v>44457</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>64</v>
@@ -4608,13 +4437,13 @@
         <v>66</v>
       </c>
       <c r="AN52" s="3">
-        <v>44456</v>
+        <v>44457</v>
       </c>
       <c r="AO52" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BH52" s="2" t="s">
         <v>69</v>
@@ -4625,34 +4454,34 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>3521100668734</v>
+        <v>352199639648</v>
       </c>
       <c r="B53" s="3">
-        <v>44455</v>
+        <v>44442</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="D53" s="3">
-        <v>40087</v>
+        <v>37105</v>
       </c>
       <c r="E53" s="3">
-        <v>44452</v>
+        <v>44440</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G53" s="2">
-        <v>2102651572</v>
+        <v>2102586921</v>
       </c>
       <c r="H53" s="3">
-        <v>44456</v>
+        <v>44443</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J53" s="3">
-        <v>44455</v>
+        <v>44442</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>64</v>
@@ -4667,13 +4496,13 @@
         <v>66</v>
       </c>
       <c r="AN53" s="3">
-        <v>44455</v>
+        <v>44442</v>
       </c>
       <c r="AO53" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG53" s="2" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="BH53" s="2" t="s">
         <v>69</v>
@@ -4684,34 +4513,34 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>3521101902825</v>
+        <v>3521100980761</v>
       </c>
       <c r="B54" s="3">
-        <v>44468</v>
+        <v>44460</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="D54" s="3">
-        <v>16504</v>
+        <v>30771</v>
       </c>
       <c r="E54" s="3">
-        <v>44464</v>
+        <v>44458</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G54" s="2">
-        <v>2102691058</v>
+        <v>2102629467</v>
       </c>
       <c r="H54" s="3">
-        <v>44468</v>
+        <v>44460</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J54" s="3">
-        <v>44468</v>
+        <v>44460</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>64</v>
@@ -4726,13 +4555,13 @@
         <v>66</v>
       </c>
       <c r="AN54" s="3">
-        <v>44468</v>
+        <v>44460</v>
       </c>
       <c r="AO54" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG54" s="2" t="s">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="BH54" s="2" t="s">
         <v>69</v>
@@ -4743,34 +4572,34 @@
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>3521101698607</v>
+        <v>3521101407671</v>
       </c>
       <c r="B55" s="3">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="D55" s="3">
-        <v>19976</v>
+        <v>34516</v>
       </c>
       <c r="E55" s="3">
-        <v>44462</v>
+        <v>44458</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="G55" s="2">
-        <v>2102437678</v>
+        <v>2102676926</v>
       </c>
       <c r="H55" s="3">
-        <v>44467</v>
+        <v>44464</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J55" s="3">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>64</v>
@@ -4785,13 +4614,13 @@
         <v>66</v>
       </c>
       <c r="AN55" s="3">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="AO55" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG55" s="2" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="BH55" s="2" t="s">
         <v>69</v>
@@ -4802,34 +4631,34 @@
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>3521101139467</v>
+        <v>3521100942628</v>
       </c>
       <c r="B56" s="3">
-        <v>44461</v>
+        <v>44459</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D56" s="3">
-        <v>28418</v>
+        <v>31749</v>
       </c>
       <c r="E56" s="3">
-        <v>44458</v>
+        <v>44455</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G56" s="2">
-        <v>2102647383</v>
+        <v>2102651593</v>
       </c>
       <c r="H56" s="3">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J56" s="3">
-        <v>44461</v>
+        <v>44459</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>64</v>
@@ -4844,13 +4673,13 @@
         <v>66</v>
       </c>
       <c r="AN56" s="3">
-        <v>44461</v>
+        <v>44459</v>
       </c>
       <c r="AO56" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG56" s="2" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="BH56" s="2" t="s">
         <v>69</v>
@@ -4861,34 +4690,34 @@
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>352199803147</v>
+        <v>3521101903998</v>
       </c>
       <c r="B57" s="3">
-        <v>44445</v>
+        <v>44469</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D57" s="3">
-        <v>32881</v>
+        <v>30466</v>
       </c>
       <c r="E57" s="3">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="G57" s="2">
-        <v>2102593330</v>
+        <v>2102677798</v>
       </c>
       <c r="H57" s="3">
-        <v>44446</v>
+        <v>44469</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J57" s="3">
-        <v>44445</v>
+        <v>44469</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>64</v>
@@ -4903,13 +4732,13 @@
         <v>66</v>
       </c>
       <c r="AN57" s="3">
-        <v>44445</v>
+        <v>44469</v>
       </c>
       <c r="AO57" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG57" s="2" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="BH57" s="2" t="s">
         <v>69</v>
@@ -4920,34 +4749,34 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>3521101443574</v>
+        <v>3521101844986</v>
       </c>
       <c r="B58" s="3">
+        <v>44468</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="3">
+        <v>27985</v>
+      </c>
+      <c r="E58" s="3">
         <v>44464</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="3">
-        <v>28369</v>
-      </c>
-      <c r="E58" s="3">
-        <v>44462</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="G58" s="2">
-        <v>2102677806</v>
+        <v>2102677838</v>
       </c>
       <c r="H58" s="3">
-        <v>44466</v>
+        <v>44469</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J58" s="3">
-        <v>44464</v>
+        <v>44468</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>64</v>
@@ -4962,13 +4791,13 @@
         <v>66</v>
       </c>
       <c r="AN58" s="3">
-        <v>44464</v>
+        <v>44468</v>
       </c>
       <c r="AO58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG58" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="BH58" s="2" t="s">
         <v>69</v>
@@ -4979,34 +4808,34 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>3521100903549</v>
+        <v>3521100596283</v>
       </c>
       <c r="B59" s="3">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="D59" s="3">
-        <v>33013</v>
+        <v>34306</v>
       </c>
       <c r="E59" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2102639183</v>
+      </c>
+      <c r="H59" s="3">
         <v>44456</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2102664995</v>
-      </c>
-      <c r="H59" s="3">
-        <v>44459</v>
-      </c>
       <c r="I59" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J59" s="3">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>64</v>
@@ -5021,13 +4850,13 @@
         <v>66</v>
       </c>
       <c r="AN59" s="3">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="AO59" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG59" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="BH59" s="2" t="s">
         <v>69</v>
@@ -5038,34 +4867,34 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>3521101355289</v>
+        <v>352199898328</v>
       </c>
       <c r="B60" s="3">
-        <v>44463</v>
+        <v>44447</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="D60" s="3">
-        <v>28657</v>
+        <v>30633</v>
       </c>
       <c r="E60" s="3">
-        <v>44459</v>
+        <v>44446</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G60" s="2">
-        <v>2102676754</v>
+        <v>2102616464</v>
       </c>
       <c r="H60" s="3">
-        <v>44464</v>
+        <v>44448</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J60" s="3">
-        <v>44463</v>
+        <v>44447</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>64</v>
@@ -5080,13 +4909,13 @@
         <v>66</v>
       </c>
       <c r="AN60" s="3">
-        <v>44463</v>
+        <v>44447</v>
       </c>
       <c r="AO60" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG60" s="2" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="BH60" s="2" t="s">
         <v>69</v>
@@ -5097,34 +4926,34 @@
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>3521101800853</v>
+        <v>3521101836340</v>
       </c>
       <c r="B61" s="3">
         <v>44468</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D61" s="3">
-        <v>21558</v>
+        <v>31825</v>
       </c>
       <c r="E61" s="3">
-        <v>44462</v>
+        <v>44466</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="G61" s="2">
-        <v>2102437689</v>
+        <v>2102664885</v>
       </c>
       <c r="H61" s="3">
-        <v>44467</v>
+        <v>44469</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J61" s="3">
-        <v>44466</v>
+        <v>44468</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>64</v>
@@ -5139,13 +4968,13 @@
         <v>66</v>
       </c>
       <c r="AN61" s="3">
-        <v>44466</v>
+        <v>44468</v>
       </c>
       <c r="AO61" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG61" s="2" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="BH61" s="2" t="s">
         <v>69</v>
@@ -5156,34 +4985,34 @@
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>3521100547994</v>
+        <v>3521101395360</v>
       </c>
       <c r="B62" s="3">
-        <v>44454</v>
+        <v>44463</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="D62" s="3">
-        <v>33002</v>
+        <v>35490</v>
       </c>
       <c r="E62" s="3">
-        <v>44450</v>
+        <v>44459</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G62" s="2">
-        <v>2102617082</v>
+        <v>2102639112</v>
       </c>
       <c r="H62" s="3">
-        <v>44455</v>
+        <v>44462</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J62" s="3">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>64</v>
@@ -5198,13 +5027,13 @@
         <v>66</v>
       </c>
       <c r="AN62" s="3">
-        <v>44454</v>
+        <v>44461</v>
       </c>
       <c r="AO62" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG62" s="2" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="BH62" s="2" t="s">
         <v>69</v>
@@ -5215,34 +5044,34 @@
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>3521101480192</v>
+        <v>3521101906654</v>
       </c>
       <c r="B63" s="3">
+        <v>44469</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="3">
+        <v>28104</v>
+      </c>
+      <c r="E63" s="3">
         <v>44466</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="3">
-        <v>21672</v>
-      </c>
-      <c r="E63" s="3">
-        <v>44461</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="G63" s="2">
-        <v>2102647480</v>
+        <v>2102677794</v>
       </c>
       <c r="H63" s="3">
-        <v>44466</v>
+        <v>44469</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J63" s="3">
-        <v>44466</v>
+        <v>44469</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>64</v>
@@ -5257,13 +5086,13 @@
         <v>66</v>
       </c>
       <c r="AN63" s="3">
-        <v>44466</v>
+        <v>44469</v>
       </c>
       <c r="AO63" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG63" s="2" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="BH63" s="2" t="s">
         <v>69</v>
@@ -5274,34 +5103,34 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>352199633197</v>
+        <v>3521101603511</v>
       </c>
       <c r="B64" s="3">
-        <v>44442</v>
+        <v>44466</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D64" s="3">
-        <v>34865</v>
+        <v>38037</v>
       </c>
       <c r="E64" s="3">
-        <v>44439</v>
+        <v>44462</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="G64" s="2">
-        <v>2102586925</v>
+        <v>2102676833</v>
       </c>
       <c r="H64" s="3">
-        <v>44443</v>
+        <v>44467</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J64" s="3">
-        <v>44442</v>
+        <v>44466</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>64</v>
@@ -5316,13 +5145,13 @@
         <v>66</v>
       </c>
       <c r="AN64" s="3">
-        <v>44442</v>
+        <v>44466</v>
       </c>
       <c r="AO64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG64" s="2" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="BH64" s="2" t="s">
         <v>69</v>
@@ -5333,34 +5162,34 @@
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>3521101031575</v>
+        <v>3521100958926</v>
       </c>
       <c r="B65" s="3">
+        <v>44459</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="3">
+        <v>37566</v>
+      </c>
+      <c r="E65" s="3">
+        <v>44456</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2102651413</v>
+      </c>
+      <c r="H65" s="3">
         <v>44460</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="3">
-        <v>13400</v>
-      </c>
-      <c r="E65" s="3">
-        <v>44457</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" s="2">
-        <v>2102587469</v>
-      </c>
-      <c r="H65" s="3">
-        <v>44461</v>
-      </c>
       <c r="I65" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J65" s="3">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>64</v>
@@ -5368,35 +5197,20 @@
       <c r="L65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AH65" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI65" s="3">
-        <v>44460</v>
-      </c>
       <c r="AL65" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AM65" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AN65" s="3">
-        <v>44460</v>
-      </c>
-      <c r="AR65" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT65" s="3">
-        <v>44460</v>
-      </c>
-      <c r="AU65" s="2" t="s">
+        <v>44459</v>
+      </c>
+      <c r="AO65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG65" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="BH65" s="2" t="s">
         <v>69</v>
@@ -5407,34 +5221,34 @@
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>3521101843562</v>
+        <v>352199915617</v>
       </c>
       <c r="B66" s="3">
-        <v>44468</v>
+        <v>44448</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D66" s="3">
-        <v>32613</v>
+        <v>40926</v>
       </c>
       <c r="E66" s="3">
-        <v>44466</v>
+        <v>44443</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="G66" s="2">
-        <v>2102677834</v>
+        <v>2102617112</v>
       </c>
       <c r="H66" s="3">
-        <v>44469</v>
+        <v>44448</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J66" s="3">
-        <v>44468</v>
+        <v>44448</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>64</v>
@@ -5449,13 +5263,13 @@
         <v>66</v>
       </c>
       <c r="AN66" s="3">
-        <v>44468</v>
+        <v>44448</v>
       </c>
       <c r="AO66" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG66" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="BH66" s="2" t="s">
         <v>69</v>
@@ -5466,34 +5280,34 @@
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>3521101481211</v>
+        <v>352199440154</v>
       </c>
       <c r="B67" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="D67" s="3">
-        <v>27472</v>
+        <v>40433</v>
       </c>
       <c r="E67" s="3">
-        <v>44463</v>
+        <v>44439</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="G67" s="2">
-        <v>2102682784</v>
+        <v>2102593462</v>
       </c>
       <c r="H67" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J67" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>64</v>
@@ -5508,13 +5322,13 @@
         <v>66</v>
       </c>
       <c r="AN67" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="AO67" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG67" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="BH67" s="2" t="s">
         <v>69</v>
@@ -5525,34 +5339,34 @@
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>3521101779172</v>
+        <v>352199337429</v>
       </c>
       <c r="B68" s="3">
-        <v>44467</v>
+        <v>44440</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D68" s="3">
-        <v>29543</v>
+        <v>30630</v>
       </c>
       <c r="E68" s="3">
-        <v>44465</v>
+        <v>44435</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="G68" s="2">
-        <v>2102691060</v>
+        <v>2102262224</v>
       </c>
       <c r="H68" s="3">
-        <v>44468</v>
+        <v>44441</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J68" s="3">
-        <v>44467</v>
+        <v>44440</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>64</v>
@@ -5567,13 +5381,13 @@
         <v>66</v>
       </c>
       <c r="AN68" s="3">
-        <v>44467</v>
+        <v>44440</v>
       </c>
       <c r="AO68" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG68" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="BH68" s="2" t="s">
         <v>69</v>
@@ -5584,34 +5398,34 @@
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>3521101782888</v>
+        <v>3521101594759</v>
       </c>
       <c r="B69" s="3">
+        <v>44466</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="3">
+        <v>35231</v>
+      </c>
+      <c r="E69" s="3">
+        <v>44461</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2102676806</v>
+      </c>
+      <c r="H69" s="3">
         <v>44467</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="3">
-        <v>37162</v>
-      </c>
-      <c r="E69" s="3">
-        <v>44464</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G69" s="2">
-        <v>2102691039</v>
-      </c>
-      <c r="H69" s="3">
-        <v>44468</v>
-      </c>
       <c r="I69" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J69" s="3">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>64</v>
@@ -5626,13 +5440,13 @@
         <v>66</v>
       </c>
       <c r="AN69" s="3">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="AO69" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG69" s="2" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="BH69" s="2" t="s">
         <v>69</v>
@@ -5643,34 +5457,34 @@
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>3521100730404</v>
+        <v>3521101601096</v>
       </c>
       <c r="B70" s="3">
-        <v>44456</v>
+        <v>44466</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="D70" s="3">
-        <v>41032</v>
+        <v>35231</v>
       </c>
       <c r="E70" s="3">
-        <v>44455</v>
+        <v>44458</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G70" s="2">
-        <v>2102597522</v>
+        <v>2102676806</v>
       </c>
       <c r="H70" s="3">
-        <v>44457</v>
+        <v>44467</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J70" s="3">
-        <v>44456</v>
+        <v>44466</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>64</v>
@@ -5685,13 +5499,13 @@
         <v>66</v>
       </c>
       <c r="AN70" s="3">
-        <v>44456</v>
+        <v>44466</v>
       </c>
       <c r="AO70" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG70" s="2" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="BH70" s="2" t="s">
         <v>69</v>
@@ -5702,34 +5516,34 @@
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>3521101511619</v>
+        <v>3521101186814</v>
       </c>
       <c r="B71" s="3">
-        <v>44466</v>
+        <v>44461</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D71" s="3">
-        <v>40875</v>
+        <v>40646</v>
       </c>
       <c r="E71" s="3">
-        <v>44463</v>
+        <v>44458</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G71" s="2">
-        <v>2102162387</v>
+        <v>2102647402</v>
       </c>
       <c r="H71" s="3">
-        <v>44467</v>
+        <v>44462</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J71" s="3">
-        <v>44466</v>
+        <v>44461</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>64</v>
@@ -5744,13 +5558,13 @@
         <v>66</v>
       </c>
       <c r="AN71" s="3">
-        <v>44466</v>
+        <v>44461</v>
       </c>
       <c r="AO71" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG71" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="BH71" s="2" t="s">
         <v>69</v>
@@ -5761,34 +5575,34 @@
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>3521101285086</v>
+        <v>352199723392</v>
       </c>
       <c r="B72" s="3">
-        <v>44462</v>
+        <v>44444</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="D72" s="3">
-        <v>36654</v>
+        <v>36794</v>
       </c>
       <c r="E72" s="3">
-        <v>44459</v>
+        <v>44439</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="G72" s="2">
-        <v>2102437732</v>
+        <v>2102587064</v>
       </c>
       <c r="H72" s="3">
-        <v>44463</v>
+        <v>44445</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J72" s="3">
-        <v>44462</v>
+        <v>44444</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>64</v>
@@ -5803,13 +5617,13 @@
         <v>66</v>
       </c>
       <c r="AN72" s="3">
-        <v>44462</v>
+        <v>44444</v>
       </c>
       <c r="AO72" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG72" s="2" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="BH72" s="2" t="s">
         <v>69</v>
@@ -5820,34 +5634,34 @@
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>3521101855268</v>
+        <v>352199636163</v>
       </c>
       <c r="B73" s="3">
-        <v>44469</v>
+        <v>44442</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="D73" s="3">
-        <v>42852</v>
+        <v>30477</v>
       </c>
       <c r="E73" s="3">
-        <v>44466</v>
+        <v>44436</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="G73" s="2">
-        <v>2102682732</v>
+        <v>2102593444</v>
       </c>
       <c r="H73" s="3">
-        <v>44469</v>
+        <v>44443</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J73" s="3">
-        <v>44469</v>
+        <v>44442</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>64</v>
@@ -5862,13 +5676,13 @@
         <v>66</v>
       </c>
       <c r="AN73" s="3">
-        <v>44469</v>
+        <v>44442</v>
       </c>
       <c r="AO73" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG73" s="2" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="BH73" s="2" t="s">
         <v>69</v>
@@ -5879,34 +5693,34 @@
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>352199515878</v>
+        <v>352199688186</v>
       </c>
       <c r="B74" s="3">
+        <v>44443</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="3">
+        <v>41593</v>
+      </c>
+      <c r="E74" s="3">
         <v>44441</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" s="3">
-        <v>29704</v>
-      </c>
-      <c r="E74" s="3">
-        <v>44438</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="G74" s="2">
-        <v>2102593473</v>
+        <v>2102590315</v>
       </c>
       <c r="H74" s="3">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J74" s="3">
-        <v>44441</v>
+        <v>44443</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>64</v>
@@ -5921,13 +5735,13 @@
         <v>66</v>
       </c>
       <c r="AN74" s="3">
-        <v>44441</v>
+        <v>44443</v>
       </c>
       <c r="AO74" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG74" s="2" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="BH74" s="2" t="s">
         <v>69</v>
@@ -5938,25 +5752,25 @@
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>3521100886600</v>
+        <v>3521100994863</v>
       </c>
       <c r="B75" s="3">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D75" s="3">
-        <v>43914</v>
+        <v>38386</v>
       </c>
       <c r="E75" s="3">
-        <v>44455</v>
+        <v>44444</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="G75" s="2">
-        <v>2102639162</v>
+        <v>2102647372</v>
       </c>
       <c r="H75" s="3">
         <v>44460</v>
@@ -5965,7 +5779,7 @@
         <v>63</v>
       </c>
       <c r="J75" s="3">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>64</v>
@@ -5980,13 +5794,13 @@
         <v>66</v>
       </c>
       <c r="AN75" s="3">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="AO75" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BH75" s="2" t="s">
         <v>69</v>
@@ -5997,34 +5811,34 @@
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>352199938743</v>
+        <v>3521100740481</v>
       </c>
       <c r="B76" s="3">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="D76" s="3">
-        <v>32996</v>
+        <v>30566</v>
       </c>
       <c r="E76" s="3">
-        <v>44445</v>
+        <v>44453</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="G76" s="2">
-        <v>2102593380</v>
+        <v>2102651730</v>
       </c>
       <c r="H76" s="3">
-        <v>44448</v>
+        <v>44457</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J76" s="3">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>64</v>
@@ -6039,13 +5853,13 @@
         <v>66</v>
       </c>
       <c r="AN76" s="3">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="AO76" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG76" s="2" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="BH76" s="2" t="s">
         <v>69</v>
@@ -6056,34 +5870,34 @@
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>3521101851365</v>
+        <v>3521101475003</v>
       </c>
       <c r="B77" s="3">
-        <v>44468</v>
+        <v>44465</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="D77" s="3">
-        <v>36071</v>
+        <v>31113</v>
       </c>
       <c r="E77" s="3">
-        <v>44464</v>
+        <v>44460</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G77" s="2">
-        <v>2102676905</v>
+        <v>2102676838</v>
       </c>
       <c r="H77" s="3">
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J77" s="3">
-        <v>44468</v>
+        <v>44465</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>64</v>
@@ -6098,13 +5912,13 @@
         <v>66</v>
       </c>
       <c r="AN77" s="3">
-        <v>44468</v>
+        <v>44465</v>
       </c>
       <c r="AO77" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG77" s="2" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="BH77" s="2" t="s">
         <v>69</v>
@@ -6115,34 +5929,34 @@
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>352199582241</v>
+        <v>3521101232458</v>
       </c>
       <c r="B78" s="3">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="D78" s="3">
-        <v>26919</v>
+        <v>32415</v>
       </c>
       <c r="E78" s="3">
-        <v>44441</v>
+        <v>44459</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="G78" s="2">
-        <v>2102593437</v>
+        <v>2102437738</v>
       </c>
       <c r="H78" s="3">
-        <v>44442</v>
+        <v>44463</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J78" s="3">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>64</v>
@@ -6157,13 +5971,13 @@
         <v>66</v>
       </c>
       <c r="AN78" s="3">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="AO78" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG78" s="2" t="s">
-        <v>272</v>
+        <v>151</v>
       </c>
       <c r="BH78" s="2" t="s">
         <v>69</v>
@@ -6174,34 +5988,34 @@
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>352199876997</v>
+        <v>352199596993</v>
       </c>
       <c r="B79" s="3">
-        <v>44447</v>
+        <v>44442</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D79" s="3">
-        <v>25808</v>
+        <v>30726</v>
       </c>
       <c r="E79" s="3">
         <v>44439</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="G79" s="2">
-        <v>2102444336</v>
+        <v>2102581048</v>
       </c>
       <c r="H79" s="3">
-        <v>44448</v>
+        <v>44442</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J79" s="3">
-        <v>44447</v>
+        <v>44442</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>64</v>
@@ -6216,22 +6030,13 @@
         <v>66</v>
       </c>
       <c r="AN79" s="3">
-        <v>44447</v>
+        <v>44442</v>
       </c>
       <c r="AO79" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BD79" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE79" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF79" s="3">
-        <v>44460</v>
-      </c>
       <c r="BG79" s="2" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BH79" s="2" t="s">
         <v>69</v>
@@ -6242,55 +6047,49 @@
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>3521101391877</v>
+        <v>3521100871353</v>
       </c>
       <c r="B80" s="3">
-        <v>44463</v>
+        <v>44456</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D80" s="3">
-        <v>29229</v>
+        <v>33588</v>
       </c>
       <c r="E80" s="3">
-        <v>44460</v>
+        <v>44452</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="G80" s="2">
-        <v>2102665026</v>
+        <v>2102458786</v>
       </c>
       <c r="H80" s="3">
-        <v>44464</v>
+        <v>44455</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J80" s="3">
-        <v>44463</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>64</v>
+        <v>44456</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AL80" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AM80" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AN80" s="3">
-        <v>44463</v>
-      </c>
-      <c r="AO80" s="2" t="s">
-        <v>64</v>
+        <v>44456</v>
       </c>
       <c r="BG80" s="2" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="BH80" s="2" t="s">
         <v>69</v>
@@ -6301,34 +6100,34 @@
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>3521100665910</v>
+        <v>352199475101</v>
       </c>
       <c r="B81" s="3">
-        <v>44455</v>
+        <v>44441</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D81" s="3">
-        <v>19298</v>
+        <v>37224</v>
       </c>
       <c r="E81" s="3">
-        <v>44452</v>
+        <v>44438</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="G81" s="2">
-        <v>2102651565</v>
+        <v>2102586268</v>
       </c>
       <c r="H81" s="3">
-        <v>44456</v>
+        <v>44442</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J81" s="3">
-        <v>44455</v>
+        <v>44441</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>64</v>
@@ -6343,13 +6142,13 @@
         <v>66</v>
       </c>
       <c r="AN81" s="3">
-        <v>44455</v>
+        <v>44441</v>
       </c>
       <c r="AO81" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG81" s="2" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="BH81" s="2" t="s">
         <v>69</v>
@@ -6360,34 +6159,34 @@
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>3521100568706</v>
+        <v>3521101393328</v>
       </c>
       <c r="B82" s="3">
-        <v>44455</v>
+        <v>44463</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="D82" s="3">
-        <v>20239</v>
+        <v>29768</v>
       </c>
       <c r="E82" s="3">
-        <v>44453</v>
+        <v>44459</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G82" s="2">
-        <v>2102651356</v>
+        <v>2102437679</v>
       </c>
       <c r="H82" s="3">
-        <v>44456</v>
+        <v>44466</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J82" s="3">
-        <v>44455</v>
+        <v>44463</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>64</v>
@@ -6402,13 +6201,13 @@
         <v>66</v>
       </c>
       <c r="AN82" s="3">
-        <v>44455</v>
+        <v>44463</v>
       </c>
       <c r="AO82" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG82" s="2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="BH82" s="2" t="s">
         <v>69</v>
@@ -6419,34 +6218,34 @@
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>352199602564</v>
+        <v>352199961137</v>
       </c>
       <c r="B83" s="3">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="D83" s="3">
-        <v>22715</v>
+        <v>34425</v>
       </c>
       <c r="E83" s="3">
-        <v>44438</v>
+        <v>44443</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="G83" s="2">
-        <v>2102506731</v>
+        <v>2102617180</v>
       </c>
       <c r="H83" s="3">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J83" s="3">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>64</v>
@@ -6461,13 +6260,13 @@
         <v>66</v>
       </c>
       <c r="AN83" s="3">
-        <v>44442</v>
+        <v>44448</v>
       </c>
       <c r="AO83" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG83" s="2" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="BH83" s="2" t="s">
         <v>69</v>
@@ -6478,34 +6277,34 @@
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>3521101906070</v>
+        <v>3521101794831</v>
       </c>
       <c r="B84" s="3">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="D84" s="3">
-        <v>17132</v>
+        <v>25121</v>
       </c>
       <c r="E84" s="3">
+        <v>44466</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2102682749</v>
+      </c>
+      <c r="H84" s="3">
         <v>44468</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="2">
-        <v>2102677796</v>
-      </c>
-      <c r="H84" s="3">
-        <v>44469</v>
-      </c>
       <c r="I84" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J84" s="3">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>64</v>
@@ -6520,13 +6319,13 @@
         <v>66</v>
       </c>
       <c r="AN84" s="3">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="AO84" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG84" s="2" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="BH84" s="2" t="s">
         <v>69</v>
@@ -6537,34 +6336,34 @@
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>3521101602757</v>
+        <v>352199897416</v>
       </c>
       <c r="B85" s="3">
-        <v>44466</v>
+        <v>44447</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D85" s="3">
-        <v>30144</v>
+        <v>25282</v>
       </c>
       <c r="E85" s="3">
-        <v>44460</v>
+        <v>44443</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="G85" s="2">
-        <v>2102676813</v>
+        <v>2102616465</v>
       </c>
       <c r="H85" s="3">
-        <v>44467</v>
+        <v>44448</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J85" s="3">
-        <v>44466</v>
+        <v>44447</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>64</v>
@@ -6579,13 +6378,13 @@
         <v>66</v>
       </c>
       <c r="AN85" s="3">
-        <v>44466</v>
+        <v>44447</v>
       </c>
       <c r="AO85" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG85" s="2" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="BH85" s="2" t="s">
         <v>69</v>
@@ -6596,34 +6395,55 @@
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>3521102702233</v>
+        <v>352199739205</v>
       </c>
       <c r="B86" s="3">
-        <v>44467</v>
+        <v>44445</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D86" s="3">
-        <v>35391</v>
+        <v>27190</v>
       </c>
       <c r="E86" s="3">
-        <v>44462</v>
+        <v>44442</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="G86" s="2">
-        <v>2102629483</v>
+        <v>2102587039</v>
       </c>
       <c r="H86" s="3">
-        <v>44459</v>
+        <v>44445</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="J86" s="3">
+        <v>44445</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN86" s="3">
+        <v>44445</v>
+      </c>
+      <c r="AO86" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="BG86" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="BH86" s="2" t="s">
         <v>69</v>
@@ -6634,34 +6454,34 @@
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>3521101870272</v>
+        <v>3521101515669</v>
       </c>
       <c r="B87" s="3">
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="D87" s="3">
-        <v>30932</v>
+        <v>11161</v>
       </c>
       <c r="E87" s="3">
-        <v>44465</v>
+        <v>44463</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G87" s="2">
-        <v>2102682725</v>
+        <v>2102672743</v>
       </c>
       <c r="H87" s="3">
-        <v>44469</v>
+        <v>44467</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J87" s="3">
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>64</v>
@@ -6676,13 +6496,13 @@
         <v>66</v>
       </c>
       <c r="AN87" s="3">
-        <v>44469</v>
+        <v>44466</v>
       </c>
       <c r="AO87" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG87" s="2" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="BH87" s="2" t="s">
         <v>69</v>
@@ -6693,31 +6513,34 @@
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>352199557003</v>
+        <v>3521100710066</v>
       </c>
       <c r="B88" s="3">
-        <v>44442</v>
+        <v>44456</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="D88" s="3">
-        <v>33353</v>
+        <v>36438</v>
+      </c>
+      <c r="E88" s="3">
+        <v>44452</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="G88" s="2">
-        <v>2102554293</v>
+        <v>2102309485</v>
       </c>
       <c r="H88" s="3">
-        <v>44442</v>
+        <v>44456</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J88" s="3">
-        <v>44442</v>
+        <v>44455</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>64</v>
@@ -6732,13 +6555,13 @@
         <v>66</v>
       </c>
       <c r="AN88" s="3">
-        <v>44442</v>
+        <v>44455</v>
       </c>
       <c r="AO88" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG88" s="2" t="s">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="BH88" s="2" t="s">
         <v>69</v>
@@ -6749,34 +6572,34 @@
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>352199397424</v>
+        <v>3521101899532</v>
       </c>
       <c r="B89" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="D89" s="3">
-        <v>29634</v>
+        <v>23630</v>
       </c>
       <c r="E89" s="3">
-        <v>44437</v>
+        <v>44465</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="G89" s="2">
-        <v>2102593480</v>
+        <v>2102691045</v>
       </c>
       <c r="H89" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J89" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>64</v>
@@ -6791,13 +6614,13 @@
         <v>66</v>
       </c>
       <c r="AN89" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="AO89" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG89" s="2" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="BH89" s="2" t="s">
         <v>69</v>
@@ -6808,34 +6631,34 @@
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>3521100792409</v>
+        <v>352199539339</v>
       </c>
       <c r="B90" s="3">
-        <v>44457</v>
+        <v>44442</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="D90" s="3">
-        <v>26465</v>
+        <v>27083</v>
       </c>
       <c r="E90" s="3">
-        <v>44453</v>
+        <v>44438</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="G90" s="2">
-        <v>2102651386</v>
+        <v>2102586986</v>
       </c>
       <c r="H90" s="3">
-        <v>44459</v>
+        <v>44442</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J90" s="3">
-        <v>44457</v>
+        <v>44442</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>64</v>
@@ -6850,13 +6673,13 @@
         <v>66</v>
       </c>
       <c r="AN90" s="3">
-        <v>44457</v>
+        <v>44442</v>
       </c>
       <c r="AO90" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG90" s="2" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="BH90" s="2" t="s">
         <v>69</v>
@@ -6867,34 +6690,34 @@
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>352199639648</v>
+        <v>3521101306520</v>
       </c>
       <c r="B91" s="3">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>284</v>
+        <v>156</v>
       </c>
       <c r="D91" s="3">
-        <v>37105</v>
+        <v>30432</v>
       </c>
       <c r="E91" s="3">
-        <v>44440</v>
+        <v>44459</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="G91" s="2">
-        <v>2102586921</v>
+        <v>2102638969</v>
       </c>
       <c r="H91" s="3">
-        <v>44443</v>
+        <v>44463</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J91" s="3">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>64</v>
@@ -6909,13 +6732,13 @@
         <v>66</v>
       </c>
       <c r="AN91" s="3">
-        <v>44442</v>
+        <v>44462</v>
       </c>
       <c r="AO91" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG91" s="2" t="s">
-        <v>284</v>
+        <v>156</v>
       </c>
       <c r="BH91" s="2" t="s">
         <v>69</v>
@@ -6926,34 +6749,34 @@
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>3521100980761</v>
+        <v>352199867512</v>
       </c>
       <c r="B92" s="3">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="D92" s="3">
-        <v>30771</v>
+        <v>30951</v>
       </c>
       <c r="E92" s="3">
-        <v>44458</v>
+        <v>44437</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G92" s="2">
-        <v>2102629467</v>
+        <v>2102458845</v>
       </c>
       <c r="H92" s="3">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J92" s="3">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>64</v>
@@ -6968,13 +6791,13 @@
         <v>66</v>
       </c>
       <c r="AN92" s="3">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="AO92" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG92" s="2" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="BH92" s="2" t="s">
         <v>69</v>
@@ -6985,34 +6808,34 @@
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>3521101407671</v>
+        <v>3521100523478</v>
       </c>
       <c r="B93" s="3">
-        <v>44463</v>
+        <v>44454</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="D93" s="3">
-        <v>34516</v>
+        <v>37232</v>
       </c>
       <c r="E93" s="3">
-        <v>44458</v>
+        <v>44449</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="G93" s="2">
-        <v>2102676926</v>
+        <v>2102638977</v>
       </c>
       <c r="H93" s="3">
-        <v>44464</v>
+        <v>44455</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J93" s="3">
-        <v>44463</v>
+        <v>44454</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>64</v>
@@ -7027,13 +6850,22 @@
         <v>66</v>
       </c>
       <c r="AN93" s="3">
-        <v>44463</v>
+        <v>44454</v>
       </c>
       <c r="AO93" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="BD93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE93" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF93" s="3">
+        <v>44496</v>
+      </c>
       <c r="BG93" s="2" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="BH93" s="2" t="s">
         <v>69</v>
@@ -7044,35 +6876,35 @@
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>3521100942628</v>
+        <v>3521100662032</v>
       </c>
       <c r="B94" s="3">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="D94" s="3">
-        <v>31749</v>
+        <v>37292</v>
       </c>
       <c r="E94" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2102651559</v>
+      </c>
+      <c r="H94" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J94" s="3">
         <v>44455</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G94" s="2">
-        <v>2102651593</v>
-      </c>
-      <c r="H94" s="3">
-        <v>44460</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J94" s="3">
-        <v>44459</v>
-      </c>
       <c r="K94" s="2" t="s">
         <v>64</v>
       </c>
@@ -7086,13 +6918,13 @@
         <v>66</v>
       </c>
       <c r="AN94" s="3">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="AO94" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG94" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="BH94" s="2" t="s">
         <v>69</v>
@@ -7103,25 +6935,25 @@
     </row>
     <row r="95" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>3521101903998</v>
+        <v>3521101834977</v>
       </c>
       <c r="B95" s="3">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="D95" s="3">
-        <v>30466</v>
+        <v>36602</v>
       </c>
       <c r="E95" s="3">
         <v>44466</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G95" s="2">
-        <v>2102677798</v>
+        <v>2102682735</v>
       </c>
       <c r="H95" s="3">
         <v>44469</v>
@@ -7130,7 +6962,7 @@
         <v>63</v>
       </c>
       <c r="J95" s="3">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>64</v>
@@ -7145,13 +6977,13 @@
         <v>66</v>
       </c>
       <c r="AN95" s="3">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="AO95" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG95" s="2" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="BH95" s="2" t="s">
         <v>69</v>
@@ -7162,34 +6994,34 @@
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>3521101844986</v>
+        <v>3521100892462</v>
       </c>
       <c r="B96" s="3">
-        <v>44468</v>
+        <v>44459</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="D96" s="3">
-        <v>27985</v>
+        <v>43019</v>
       </c>
       <c r="E96" s="3">
-        <v>44464</v>
+        <v>44456</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="G96" s="2">
-        <v>2102677838</v>
+        <v>2102587454</v>
       </c>
       <c r="H96" s="3">
-        <v>44469</v>
+        <v>44460</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J96" s="3">
-        <v>44468</v>
+        <v>44459</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>64</v>
@@ -7204,13 +7036,22 @@
         <v>66</v>
       </c>
       <c r="AN96" s="3">
-        <v>44468</v>
+        <v>44459</v>
       </c>
       <c r="AO96" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="BD96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE96" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF96" s="3">
+        <v>44557</v>
+      </c>
       <c r="BG96" s="2" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="BH96" s="2" t="s">
         <v>69</v>
@@ -7221,34 +7062,34 @@
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>3521100596283</v>
+        <v>3521101571315</v>
       </c>
       <c r="B97" s="3">
-        <v>44455</v>
+        <v>44466</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="D97" s="3">
-        <v>34306</v>
+        <v>33764</v>
       </c>
       <c r="E97" s="3">
-        <v>44452</v>
+        <v>44463</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="G97" s="2">
-        <v>2102639183</v>
+        <v>2102437683</v>
       </c>
       <c r="H97" s="3">
-        <v>44456</v>
+        <v>44467</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J97" s="3">
-        <v>44455</v>
+        <v>44466</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>64</v>
@@ -7263,13 +7104,13 @@
         <v>66</v>
       </c>
       <c r="AN97" s="3">
-        <v>44455</v>
+        <v>44466</v>
       </c>
       <c r="AO97" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG97" s="2" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="BH97" s="2" t="s">
         <v>69</v>
@@ -7280,34 +7121,34 @@
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>352199898328</v>
+        <v>352199465327</v>
       </c>
       <c r="B98" s="3">
-        <v>44447</v>
+        <v>44441</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="D98" s="3">
-        <v>30633</v>
+        <v>35682</v>
       </c>
       <c r="E98" s="3">
-        <v>44446</v>
+        <v>44437</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G98" s="2">
-        <v>2102616464</v>
+        <v>2102586367</v>
       </c>
       <c r="H98" s="3">
-        <v>44448</v>
+        <v>44442</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J98" s="3">
-        <v>44447</v>
+        <v>44441</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>64</v>
@@ -7322,13 +7163,13 @@
         <v>66</v>
       </c>
       <c r="AN98" s="3">
-        <v>44447</v>
+        <v>44441</v>
       </c>
       <c r="AO98" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG98" s="2" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="BH98" s="2" t="s">
         <v>69</v>
@@ -7339,35 +7180,35 @@
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>3521101836340</v>
+        <v>3521101627369</v>
       </c>
       <c r="B99" s="3">
-        <v>44468</v>
+        <v>44466</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="D99" s="3">
-        <v>31825</v>
+        <v>36531</v>
       </c>
       <c r="E99" s="3">
+        <v>44461</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G99" s="2">
+        <v>2102562937</v>
+      </c>
+      <c r="H99" s="3">
+        <v>44467</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J99" s="3">
         <v>44466</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G99" s="2">
-        <v>2102664885</v>
-      </c>
-      <c r="H99" s="3">
-        <v>44469</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J99" s="3">
-        <v>44468</v>
-      </c>
       <c r="K99" s="2" t="s">
         <v>64</v>
       </c>
@@ -7381,13 +7222,13 @@
         <v>66</v>
       </c>
       <c r="AN99" s="3">
-        <v>44468</v>
+        <v>44466</v>
       </c>
       <c r="AO99" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG99" s="2" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="BH99" s="2" t="s">
         <v>69</v>
@@ -7398,34 +7239,34 @@
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>3521101395360</v>
+        <v>352199805135</v>
       </c>
       <c r="B100" s="3">
-        <v>44463</v>
+        <v>44445</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="D100" s="3">
-        <v>35490</v>
+        <v>37046</v>
       </c>
       <c r="E100" s="3">
-        <v>44459</v>
+        <v>44442</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="G100" s="2">
-        <v>2102639112</v>
+        <v>2102590361</v>
       </c>
       <c r="H100" s="3">
-        <v>44462</v>
+        <v>44446</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J100" s="3">
-        <v>44461</v>
+        <v>44445</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>64</v>
@@ -7440,13 +7281,13 @@
         <v>66</v>
       </c>
       <c r="AN100" s="3">
-        <v>44461</v>
+        <v>44445</v>
       </c>
       <c r="AO100" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG100" s="2" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="BH100" s="2" t="s">
         <v>69</v>
@@ -7457,34 +7298,34 @@
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>3521101906654</v>
+        <v>3521101051733</v>
       </c>
       <c r="B101" s="3">
-        <v>44469</v>
+        <v>44460</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="D101" s="3">
-        <v>28104</v>
+        <v>44181</v>
       </c>
       <c r="E101" s="3">
-        <v>44466</v>
+        <v>44459</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="G101" s="2">
-        <v>2102677794</v>
+        <v>2102506691</v>
       </c>
       <c r="H101" s="3">
-        <v>44469</v>
+        <v>44461</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J101" s="3">
-        <v>44469</v>
+        <v>44460</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>64</v>
@@ -7499,13 +7340,13 @@
         <v>66</v>
       </c>
       <c r="AN101" s="3">
-        <v>44469</v>
+        <v>44460</v>
       </c>
       <c r="AO101" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG101" s="2" t="s">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="BH101" s="2" t="s">
         <v>69</v>
@@ -7516,55 +7357,49 @@
     </row>
     <row r="102" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>3521101603511</v>
+        <v>352199849869</v>
       </c>
       <c r="B102" s="3">
-        <v>44466</v>
+        <v>44446</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="D102" s="3">
-        <v>38037</v>
+        <v>35229</v>
       </c>
       <c r="E102" s="3">
-        <v>44462</v>
+        <v>44438</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="G102" s="2">
-        <v>2102676833</v>
+        <v>2102616604</v>
       </c>
       <c r="H102" s="3">
-        <v>44467</v>
+        <v>44447</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J102" s="3">
-        <v>44466</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>64</v>
+        <v>44446</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AL102" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AM102" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AN102" s="3">
-        <v>44466</v>
-      </c>
-      <c r="AO102" s="2" t="s">
-        <v>64</v>
+        <v>44446</v>
       </c>
       <c r="BG102" s="2" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="BH102" s="2" t="s">
         <v>69</v>
@@ -7575,34 +7410,34 @@
     </row>
     <row r="103" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>3521100958926</v>
+        <v>3521101849549</v>
       </c>
       <c r="B103" s="3">
-        <v>44459</v>
+        <v>44468</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="D103" s="3">
-        <v>37566</v>
+        <v>43055</v>
       </c>
       <c r="E103" s="3">
-        <v>44456</v>
+        <v>44464</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="G103" s="2">
-        <v>2102651413</v>
+        <v>2102676908</v>
       </c>
       <c r="H103" s="3">
-        <v>44460</v>
+        <v>44469</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J103" s="3">
-        <v>44459</v>
+        <v>44468</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>64</v>
@@ -7617,13 +7452,13 @@
         <v>66</v>
       </c>
       <c r="AN103" s="3">
-        <v>44459</v>
+        <v>44468</v>
       </c>
       <c r="AO103" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG103" s="2" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="BH103" s="2" t="s">
         <v>69</v>
@@ -7634,34 +7469,34 @@
     </row>
     <row r="104" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>352199915617</v>
+        <v>352199325109</v>
       </c>
       <c r="B104" s="3">
-        <v>44448</v>
+        <v>44440</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="D104" s="3">
-        <v>40926</v>
+        <v>32972</v>
       </c>
       <c r="E104" s="3">
-        <v>44443</v>
+        <v>44433</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="G104" s="2">
-        <v>2102617112</v>
+        <v>2102590409</v>
       </c>
       <c r="H104" s="3">
-        <v>44448</v>
+        <v>44440</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J104" s="3">
-        <v>44448</v>
+        <v>44440</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>64</v>
@@ -7676,13 +7511,13 @@
         <v>66</v>
       </c>
       <c r="AN104" s="3">
-        <v>44448</v>
+        <v>44440</v>
       </c>
       <c r="AO104" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG104" s="2" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="BH104" s="2" t="s">
         <v>69</v>
@@ -7693,34 +7528,34 @@
     </row>
     <row r="105" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>352199440154</v>
+        <v>3521100577806</v>
       </c>
       <c r="B105" s="3">
-        <v>44441</v>
+        <v>44455</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="D105" s="3">
-        <v>40433</v>
+        <v>24534</v>
       </c>
       <c r="E105" s="3">
-        <v>44439</v>
+        <v>44450</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>290</v>
+        <v>86</v>
       </c>
       <c r="G105" s="2">
-        <v>2102593462</v>
+        <v>2102651357</v>
       </c>
       <c r="H105" s="3">
-        <v>44441</v>
+        <v>44456</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J105" s="3">
-        <v>44441</v>
+        <v>44455</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>64</v>
@@ -7735,13 +7570,13 @@
         <v>66</v>
       </c>
       <c r="AN105" s="3">
-        <v>44441</v>
+        <v>44455</v>
       </c>
       <c r="AO105" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG105" s="2" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="BH105" s="2" t="s">
         <v>69</v>
@@ -7752,34 +7587,34 @@
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>352199337429</v>
+        <v>3521101766129</v>
       </c>
       <c r="B106" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="D106" s="3">
-        <v>30630</v>
+        <v>36229</v>
       </c>
       <c r="E106" s="3">
-        <v>44435</v>
+        <v>44466</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="G106" s="2">
-        <v>2102262224</v>
+        <v>2102664934</v>
       </c>
       <c r="H106" s="3">
-        <v>44441</v>
+        <v>44468</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J106" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>64</v>
@@ -7794,13 +7629,13 @@
         <v>66</v>
       </c>
       <c r="AN106" s="3">
-        <v>44440</v>
+        <v>44468</v>
       </c>
       <c r="AO106" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG106" s="2" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="BH106" s="2" t="s">
         <v>69</v>
@@ -7811,34 +7646,34 @@
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>3521101594759</v>
+        <v>352199475699</v>
       </c>
       <c r="B107" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="D107" s="3">
-        <v>35231</v>
+        <v>28578</v>
       </c>
       <c r="E107" s="3">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G107" s="2">
-        <v>2102676806</v>
+        <v>2102586267</v>
       </c>
       <c r="H107" s="3">
-        <v>44467</v>
+        <v>44442</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J107" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>64</v>
@@ -7853,13 +7688,13 @@
         <v>66</v>
       </c>
       <c r="AN107" s="3">
-        <v>44466</v>
+        <v>44441</v>
       </c>
       <c r="AO107" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG107" s="2" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="BH107" s="2" t="s">
         <v>69</v>
@@ -7870,34 +7705,34 @@
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>3521101601096</v>
+        <v>3521101379683</v>
       </c>
       <c r="B108" s="3">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="D108" s="3">
-        <v>35231</v>
+        <v>35471</v>
       </c>
       <c r="E108" s="3">
-        <v>44458</v>
+        <v>44460</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G108" s="2">
-        <v>2102676806</v>
+        <v>2102656596</v>
       </c>
       <c r="H108" s="3">
-        <v>44467</v>
+        <v>44464</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J108" s="3">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>64</v>
@@ -7912,13 +7747,13 @@
         <v>66</v>
       </c>
       <c r="AN108" s="3">
-        <v>44466</v>
+        <v>44463</v>
       </c>
       <c r="AO108" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG108" s="2" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="BH108" s="2" t="s">
         <v>69</v>
@@ -7929,25 +7764,25 @@
     </row>
     <row r="109" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>3521101186814</v>
+        <v>3521101141456</v>
       </c>
       <c r="B109" s="3">
         <v>44461</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="D109" s="3">
-        <v>40646</v>
+        <v>33544</v>
       </c>
       <c r="E109" s="3">
-        <v>44458</v>
+        <v>44459</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G109" s="2">
-        <v>2102647402</v>
+        <v>2102437748</v>
       </c>
       <c r="H109" s="3">
         <v>44462</v>
@@ -7977,7 +7812,7 @@
         <v>64</v>
       </c>
       <c r="BG109" s="2" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="BH109" s="2" t="s">
         <v>69</v>
@@ -7988,34 +7823,34 @@
     </row>
     <row r="110" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>352199723392</v>
+        <v>352199352808</v>
       </c>
       <c r="B110" s="3">
-        <v>44444</v>
+        <v>44440</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="D110" s="3">
-        <v>36794</v>
+        <v>26216</v>
       </c>
       <c r="E110" s="3">
-        <v>44439</v>
+        <v>44436</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="G110" s="2">
-        <v>2102587064</v>
+        <v>2102554265</v>
       </c>
       <c r="H110" s="3">
-        <v>44445</v>
+        <v>44441</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J110" s="3">
-        <v>44444</v>
+        <v>44440</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>64</v>
@@ -8030,13 +7865,13 @@
         <v>66</v>
       </c>
       <c r="AN110" s="3">
-        <v>44444</v>
+        <v>44440</v>
       </c>
       <c r="AO110" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG110" s="2" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="BH110" s="2" t="s">
         <v>69</v>
@@ -8047,34 +7882,34 @@
     </row>
     <row r="111" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>352199636163</v>
+        <v>352199467916</v>
       </c>
       <c r="B111" s="3">
+        <v>44441</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" s="3">
+        <v>27525</v>
+      </c>
+      <c r="E111" s="3">
+        <v>44438</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G111" s="2">
+        <v>2102586371</v>
+      </c>
+      <c r="H111" s="3">
         <v>44442</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D111" s="3">
-        <v>30477</v>
-      </c>
-      <c r="E111" s="3">
-        <v>44436</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G111" s="2">
-        <v>2102593444</v>
-      </c>
-      <c r="H111" s="3">
-        <v>44443</v>
-      </c>
       <c r="I111" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J111" s="3">
-        <v>44442</v>
+        <v>44441</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>64</v>
@@ -8089,13 +7924,13 @@
         <v>66</v>
       </c>
       <c r="AN111" s="3">
-        <v>44442</v>
+        <v>44441</v>
       </c>
       <c r="AO111" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG111" s="2" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="BH111" s="2" t="s">
         <v>69</v>
@@ -8106,55 +7941,49 @@
     </row>
     <row r="112" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>352199688186</v>
+        <v>352199851532</v>
       </c>
       <c r="B112" s="3">
-        <v>44443</v>
+        <v>44447</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D112" s="3">
-        <v>41593</v>
+        <v>31725</v>
       </c>
       <c r="E112" s="3">
-        <v>44441</v>
+        <v>44445</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="G112" s="2">
-        <v>2102590315</v>
+        <v>2102616609</v>
       </c>
       <c r="H112" s="3">
-        <v>44445</v>
+        <v>44447</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J112" s="3">
-        <v>44443</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>64</v>
+        <v>44447</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AL112" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AM112" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AN112" s="3">
-        <v>44443</v>
-      </c>
-      <c r="AO112" s="2" t="s">
-        <v>64</v>
+        <v>44447</v>
       </c>
       <c r="BG112" s="2" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="BH112" s="2" t="s">
         <v>69</v>
@@ -8165,34 +7994,34 @@
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>3521100994863</v>
+        <v>3521101603475</v>
       </c>
       <c r="B113" s="3">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D113" s="3">
-        <v>38386</v>
+        <v>27946</v>
       </c>
       <c r="E113" s="3">
-        <v>44444</v>
+        <v>44462</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="G113" s="2">
-        <v>2102647372</v>
+        <v>2102676808</v>
       </c>
       <c r="H113" s="3">
-        <v>44460</v>
+        <v>44467</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J113" s="3">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>64</v>
@@ -8207,13 +8036,13 @@
         <v>66</v>
       </c>
       <c r="AN113" s="3">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="AO113" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG113" s="2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="BH113" s="2" t="s">
         <v>69</v>
@@ -8224,34 +8053,34 @@
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>3521100740481</v>
+        <v>3521101242648</v>
       </c>
       <c r="B114" s="3">
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D114" s="3">
-        <v>30566</v>
+        <v>30022</v>
       </c>
       <c r="E114" s="3">
-        <v>44453</v>
+        <v>44459</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G114" s="2">
-        <v>2102651730</v>
+        <v>2102651479</v>
       </c>
       <c r="H114" s="3">
-        <v>44457</v>
+        <v>44462</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J114" s="3">
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>64</v>
@@ -8266,13 +8095,13 @@
         <v>66</v>
       </c>
       <c r="AN114" s="3">
-        <v>44456</v>
+        <v>44462</v>
       </c>
       <c r="AO114" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG114" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="BH114" s="2" t="s">
         <v>69</v>
@@ -8283,34 +8112,34 @@
     </row>
     <row r="115" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>3521101475003</v>
+        <v>3521101686401</v>
       </c>
       <c r="B115" s="3">
-        <v>44465</v>
+        <v>44467</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D115" s="3">
-        <v>31113</v>
+        <v>29304</v>
       </c>
       <c r="E115" s="3">
-        <v>44460</v>
+        <v>44461</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="G115" s="2">
-        <v>2102676838</v>
+        <v>2102676895</v>
       </c>
       <c r="H115" s="3">
-        <v>44466</v>
+        <v>44468</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J115" s="3">
-        <v>44465</v>
+        <v>44467</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>64</v>
@@ -8325,13 +8154,13 @@
         <v>66</v>
       </c>
       <c r="AN115" s="3">
-        <v>44465</v>
+        <v>44467</v>
       </c>
       <c r="AO115" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG115" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="BH115" s="2" t="s">
         <v>69</v>
@@ -8342,34 +8171,34 @@
     </row>
     <row r="116" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>3521101232458</v>
+        <v>352199536582</v>
       </c>
       <c r="B116" s="3">
-        <v>44462</v>
+        <v>44441</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="D116" s="3">
-        <v>32415</v>
+        <v>32937</v>
       </c>
       <c r="E116" s="3">
-        <v>44459</v>
+        <v>44438</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>92</v>
+        <v>266</v>
       </c>
       <c r="G116" s="2">
-        <v>2102437738</v>
+        <v>2102586324</v>
       </c>
       <c r="H116" s="3">
-        <v>44463</v>
+        <v>44442</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J116" s="3">
-        <v>44462</v>
+        <v>44441</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>64</v>
@@ -8384,13 +8213,13 @@
         <v>66</v>
       </c>
       <c r="AN116" s="3">
-        <v>44462</v>
+        <v>44441</v>
       </c>
       <c r="AO116" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BG116" s="2" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="BH116" s="2" t="s">
         <v>69</v>
@@ -8401,34 +8230,34 @@
     </row>
     <row r="117" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>352199596993</v>
+        <v>3521101521740</v>
       </c>
       <c r="B117" s="3">
-        <v>44442</v>
+        <v>44466</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>298</v>
+        <v>172</v>
       </c>
       <c r="D117" s="3">
-        <v>30726</v>
+        <v>27569</v>
       </c>
       <c r="E117" s="3">
-        <v>44439</v>
+        <v>44464</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="G117" s="2">
-        <v>2102581048</v>
+        <v>2102557557</v>
       </c>
       <c r="H117" s="3">
-        <v>44442</v>
+        <v>44466</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J117" s="3">
-        <v>44442</v>
+        <v>44466</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>64</v>
@@ -8443,13 +8272,16 @@
         <v>66</v>
       </c>
       <c r="AN117" s="3">
-        <v>44442</v>
+        <v>44466</v>
       </c>
       <c r="AO117" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="BE117" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="BG117" s="2" t="s">
-        <v>298</v>
+        <v>172</v>
       </c>
       <c r="BH117" s="2" t="s">
         <v>69</v>
@@ -8460,49 +8292,55 @@
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>3521100871353</v>
+        <v>3521101733024</v>
       </c>
       <c r="B118" s="3">
-        <v>44456</v>
+        <v>44468</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="D118" s="3">
-        <v>33588</v>
+        <v>32677</v>
       </c>
       <c r="E118" s="3">
-        <v>44452</v>
+        <v>44463</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="G118" s="2">
-        <v>2102458786</v>
+        <v>2102677710</v>
       </c>
       <c r="H118" s="3">
-        <v>44455</v>
+        <v>44468</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J118" s="3">
-        <v>44456</v>
+        <v>44467</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AL118" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AM118" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AN118" s="3">
-        <v>44456</v>
+        <v>44467</v>
+      </c>
+      <c r="AO118" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="BG118" s="2" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="BH118" s="2" t="s">
         <v>69</v>
@@ -8511,2260 +8349,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>352199475101</v>
-      </c>
-      <c r="B119" s="3">
-        <v>44441</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D119" s="3">
-        <v>37224</v>
-      </c>
-      <c r="E119" s="3">
-        <v>44438</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G119" s="2">
-        <v>2102586268</v>
-      </c>
-      <c r="H119" s="3">
-        <v>44442</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J119" s="3">
-        <v>44441</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL119" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM119" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN119" s="3">
-        <v>44441</v>
-      </c>
-      <c r="AO119" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG119" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BH119" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI119" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>3521101393328</v>
-      </c>
-      <c r="B120" s="3">
-        <v>44463</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D120" s="3">
-        <v>29768</v>
-      </c>
-      <c r="E120" s="3">
-        <v>44459</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G120" s="2">
-        <v>2102437679</v>
-      </c>
-      <c r="H120" s="3">
-        <v>44466</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J120" s="3">
-        <v>44463</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL120" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM120" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN120" s="3">
-        <v>44463</v>
-      </c>
-      <c r="AO120" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG120" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="BH120" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI120" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>352199961137</v>
-      </c>
-      <c r="B121" s="3">
-        <v>44448</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D121" s="3">
-        <v>34425</v>
-      </c>
-      <c r="E121" s="3">
-        <v>44443</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G121" s="2">
-        <v>2102617180</v>
-      </c>
-      <c r="H121" s="3">
-        <v>44448</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J121" s="3">
-        <v>44448</v>
-      </c>
-      <c r="K121" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL121" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM121" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN121" s="3">
-        <v>44448</v>
-      </c>
-      <c r="AO121" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG121" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="BH121" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI121" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>3521101794831</v>
-      </c>
-      <c r="B122" s="3">
-        <v>44468</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D122" s="3">
-        <v>25121</v>
-      </c>
-      <c r="E122" s="3">
-        <v>44466</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G122" s="2">
-        <v>2102682749</v>
-      </c>
-      <c r="H122" s="3">
-        <v>44468</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J122" s="3">
-        <v>44468</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL122" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM122" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN122" s="3">
-        <v>44468</v>
-      </c>
-      <c r="AO122" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG122" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH122" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI122" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>352199897416</v>
-      </c>
-      <c r="B123" s="3">
-        <v>44447</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D123" s="3">
-        <v>25282</v>
-      </c>
-      <c r="E123" s="3">
-        <v>44443</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G123" s="2">
-        <v>2102616465</v>
-      </c>
-      <c r="H123" s="3">
-        <v>44448</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J123" s="3">
-        <v>44447</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL123" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM123" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN123" s="3">
-        <v>44447</v>
-      </c>
-      <c r="AO123" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG123" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BH123" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI123" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>352199739205</v>
-      </c>
-      <c r="B124" s="3">
-        <v>44445</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D124" s="3">
-        <v>27190</v>
-      </c>
-      <c r="E124" s="3">
-        <v>44442</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" s="2">
-        <v>2102587039</v>
-      </c>
-      <c r="H124" s="3">
-        <v>44445</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J124" s="3">
-        <v>44445</v>
-      </c>
-      <c r="K124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL124" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM124" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN124" s="3">
-        <v>44445</v>
-      </c>
-      <c r="AO124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG124" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH124" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI124" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>3521101515669</v>
-      </c>
-      <c r="B125" s="3">
-        <v>44466</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D125" s="3">
-        <v>11161</v>
-      </c>
-      <c r="E125" s="3">
-        <v>44463</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G125" s="2">
-        <v>2102672743</v>
-      </c>
-      <c r="H125" s="3">
-        <v>44467</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J125" s="3">
-        <v>44466</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL125" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM125" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN125" s="3">
-        <v>44466</v>
-      </c>
-      <c r="AO125" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG125" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="BH125" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI125" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>3521100710066</v>
-      </c>
-      <c r="B126" s="3">
-        <v>44456</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D126" s="3">
-        <v>36438</v>
-      </c>
-      <c r="E126" s="3">
-        <v>44452</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G126" s="2">
-        <v>2102309485</v>
-      </c>
-      <c r="H126" s="3">
-        <v>44456</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J126" s="3">
-        <v>44455</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL126" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM126" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN126" s="3">
-        <v>44455</v>
-      </c>
-      <c r="AO126" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG126" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH126" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI126" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>3521101899532</v>
-      </c>
-      <c r="B127" s="3">
-        <v>44468</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D127" s="3">
-        <v>23630</v>
-      </c>
-      <c r="E127" s="3">
-        <v>44465</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G127" s="2">
-        <v>2102691045</v>
-      </c>
-      <c r="H127" s="3">
-        <v>44468</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J127" s="3">
-        <v>44468</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL127" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM127" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN127" s="3">
-        <v>44468</v>
-      </c>
-      <c r="AO127" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG127" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="BH127" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI127" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>352199539339</v>
-      </c>
-      <c r="B128" s="3">
-        <v>44442</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D128" s="3">
-        <v>27083</v>
-      </c>
-      <c r="E128" s="3">
-        <v>44438</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G128" s="2">
-        <v>2102586986</v>
-      </c>
-      <c r="H128" s="3">
-        <v>44442</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J128" s="3">
-        <v>44442</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL128" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM128" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN128" s="3">
-        <v>44442</v>
-      </c>
-      <c r="AO128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG128" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="BH128" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI128" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="129" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>3521101306520</v>
-      </c>
-      <c r="B129" s="3">
-        <v>44462</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D129" s="3">
-        <v>30432</v>
-      </c>
-      <c r="E129" s="3">
-        <v>44459</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G129" s="2">
-        <v>2102638969</v>
-      </c>
-      <c r="H129" s="3">
-        <v>44463</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J129" s="3">
-        <v>44462</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL129" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM129" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN129" s="3">
-        <v>44462</v>
-      </c>
-      <c r="AO129" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG129" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BH129" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI129" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>352199867512</v>
-      </c>
-      <c r="B130" s="3">
-        <v>44442</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D130" s="3">
-        <v>30951</v>
-      </c>
-      <c r="E130" s="3">
-        <v>44437</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G130" s="2">
-        <v>2102458845</v>
-      </c>
-      <c r="H130" s="3">
-        <v>44442</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J130" s="3">
-        <v>44442</v>
-      </c>
-      <c r="K130" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL130" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM130" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN130" s="3">
-        <v>44442</v>
-      </c>
-      <c r="AO130" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG130" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="BH130" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI130" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>3521100523478</v>
-      </c>
-      <c r="B131" s="3">
-        <v>44454</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D131" s="3">
-        <v>37232</v>
-      </c>
-      <c r="E131" s="3">
-        <v>44449</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G131" s="2">
-        <v>2102638977</v>
-      </c>
-      <c r="H131" s="3">
-        <v>44455</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J131" s="3">
-        <v>44454</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL131" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM131" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN131" s="3">
-        <v>44454</v>
-      </c>
-      <c r="AO131" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD131" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE131" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BF131" s="3">
-        <v>44496</v>
-      </c>
-      <c r="BG131" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH131" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI131" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="132" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>3521100662032</v>
-      </c>
-      <c r="B132" s="3">
-        <v>44455</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D132" s="3">
-        <v>37292</v>
-      </c>
-      <c r="E132" s="3">
-        <v>44452</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G132" s="2">
-        <v>2102651559</v>
-      </c>
-      <c r="H132" s="3">
-        <v>44456</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J132" s="3">
-        <v>44455</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL132" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM132" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN132" s="3">
-        <v>44455</v>
-      </c>
-      <c r="AO132" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG132" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH132" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI132" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="133" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>3521101834977</v>
-      </c>
-      <c r="B133" s="3">
-        <v>44468</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D133" s="3">
-        <v>36602</v>
-      </c>
-      <c r="E133" s="3">
-        <v>44466</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G133" s="2">
-        <v>2102682735</v>
-      </c>
-      <c r="H133" s="3">
-        <v>44469</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J133" s="3">
-        <v>44468</v>
-      </c>
-      <c r="K133" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL133" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM133" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN133" s="3">
-        <v>44468</v>
-      </c>
-      <c r="AO133" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG133" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH133" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI133" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="134" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>3521100892462</v>
-      </c>
-      <c r="B134" s="3">
-        <v>44459</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D134" s="3">
-        <v>43019</v>
-      </c>
-      <c r="E134" s="3">
-        <v>44456</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G134" s="2">
-        <v>2102587454</v>
-      </c>
-      <c r="H134" s="3">
-        <v>44460</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J134" s="3">
-        <v>44459</v>
-      </c>
-      <c r="K134" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L134" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL134" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM134" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN134" s="3">
-        <v>44459</v>
-      </c>
-      <c r="AO134" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BD134" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE134" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF134" s="3">
-        <v>44557</v>
-      </c>
-      <c r="BG134" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH134" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI134" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="135" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>3521101571315</v>
-      </c>
-      <c r="B135" s="3">
-        <v>44466</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D135" s="3">
-        <v>33764</v>
-      </c>
-      <c r="E135" s="3">
-        <v>44463</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G135" s="2">
-        <v>2102437683</v>
-      </c>
-      <c r="H135" s="3">
-        <v>44467</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J135" s="3">
-        <v>44466</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL135" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM135" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN135" s="3">
-        <v>44466</v>
-      </c>
-      <c r="AO135" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG135" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BH135" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI135" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="136" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>352199465327</v>
-      </c>
-      <c r="B136" s="3">
-        <v>44441</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D136" s="3">
-        <v>35682</v>
-      </c>
-      <c r="E136" s="3">
-        <v>44437</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G136" s="2">
-        <v>2102586367</v>
-      </c>
-      <c r="H136" s="3">
-        <v>44442</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J136" s="3">
-        <v>44441</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L136" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL136" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM136" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN136" s="3">
-        <v>44441</v>
-      </c>
-      <c r="AO136" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG136" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="BH136" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI136" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="137" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>3521101627369</v>
-      </c>
-      <c r="B137" s="3">
-        <v>44466</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D137" s="3">
-        <v>36531</v>
-      </c>
-      <c r="E137" s="3">
-        <v>44461</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G137" s="2">
-        <v>2102562937</v>
-      </c>
-      <c r="H137" s="3">
-        <v>44467</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J137" s="3">
-        <v>44466</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL137" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM137" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN137" s="3">
-        <v>44466</v>
-      </c>
-      <c r="AO137" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG137" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BH137" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI137" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="138" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>352199805135</v>
-      </c>
-      <c r="B138" s="3">
-        <v>44445</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D138" s="3">
-        <v>37046</v>
-      </c>
-      <c r="E138" s="3">
-        <v>44442</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G138" s="2">
-        <v>2102590361</v>
-      </c>
-      <c r="H138" s="3">
-        <v>44446</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J138" s="3">
-        <v>44445</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L138" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL138" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM138" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN138" s="3">
-        <v>44445</v>
-      </c>
-      <c r="AO138" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG138" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="BH138" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI138" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="139" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>3521101051733</v>
-      </c>
-      <c r="B139" s="3">
-        <v>44460</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D139" s="3">
-        <v>44181</v>
-      </c>
-      <c r="E139" s="3">
-        <v>44459</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G139" s="2">
-        <v>2102506691</v>
-      </c>
-      <c r="H139" s="3">
-        <v>44461</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J139" s="3">
-        <v>44460</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL139" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM139" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN139" s="3">
-        <v>44460</v>
-      </c>
-      <c r="AO139" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG139" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH139" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI139" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="140" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>352199849869</v>
-      </c>
-      <c r="B140" s="3">
-        <v>44446</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D140" s="3">
-        <v>35229</v>
-      </c>
-      <c r="E140" s="3">
-        <v>44438</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G140" s="2">
-        <v>2102616604</v>
-      </c>
-      <c r="H140" s="3">
-        <v>44447</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J140" s="3">
-        <v>44446</v>
-      </c>
-      <c r="L140" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL140" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM140" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN140" s="3">
-        <v>44446</v>
-      </c>
-      <c r="BG140" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="BH140" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI140" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="141" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>3521101849549</v>
-      </c>
-      <c r="B141" s="3">
-        <v>44468</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D141" s="3">
-        <v>43055</v>
-      </c>
-      <c r="E141" s="3">
-        <v>44464</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G141" s="2">
-        <v>2102676908</v>
-      </c>
-      <c r="H141" s="3">
-        <v>44469</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J141" s="3">
-        <v>44468</v>
-      </c>
-      <c r="K141" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L141" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL141" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM141" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN141" s="3">
-        <v>44468</v>
-      </c>
-      <c r="AO141" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG141" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BH141" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI141" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="142" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>352199325109</v>
-      </c>
-      <c r="B142" s="3">
-        <v>44440</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D142" s="3">
-        <v>32972</v>
-      </c>
-      <c r="E142" s="3">
-        <v>44433</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G142" s="2">
-        <v>2102590409</v>
-      </c>
-      <c r="H142" s="3">
-        <v>44440</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J142" s="3">
-        <v>44440</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL142" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM142" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN142" s="3">
-        <v>44440</v>
-      </c>
-      <c r="AO142" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG142" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="BH142" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI142" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="143" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>3521100577806</v>
-      </c>
-      <c r="B143" s="3">
-        <v>44455</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D143" s="3">
-        <v>24534</v>
-      </c>
-      <c r="E143" s="3">
-        <v>44450</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G143" s="2">
-        <v>2102651357</v>
-      </c>
-      <c r="H143" s="3">
-        <v>44456</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J143" s="3">
-        <v>44455</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L143" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL143" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM143" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN143" s="3">
-        <v>44455</v>
-      </c>
-      <c r="AO143" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG143" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH143" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI143" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="144" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>3521101766129</v>
-      </c>
-      <c r="B144" s="3">
-        <v>44468</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D144" s="3">
-        <v>36229</v>
-      </c>
-      <c r="E144" s="3">
-        <v>44466</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G144" s="2">
-        <v>2102664934</v>
-      </c>
-      <c r="H144" s="3">
-        <v>44468</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J144" s="3">
-        <v>44468</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL144" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM144" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN144" s="3">
-        <v>44468</v>
-      </c>
-      <c r="AO144" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG144" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BH144" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI144" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="145" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>352199475699</v>
-      </c>
-      <c r="B145" s="3">
-        <v>44441</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D145" s="3">
-        <v>28578</v>
-      </c>
-      <c r="E145" s="3">
-        <v>44438</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G145" s="2">
-        <v>2102586267</v>
-      </c>
-      <c r="H145" s="3">
-        <v>44442</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J145" s="3">
-        <v>44441</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL145" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM145" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN145" s="3">
-        <v>44441</v>
-      </c>
-      <c r="AO145" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG145" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="BH145" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI145" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>3521101379683</v>
-      </c>
-      <c r="B146" s="3">
-        <v>44463</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D146" s="3">
-        <v>35471</v>
-      </c>
-      <c r="E146" s="3">
-        <v>44460</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G146" s="2">
-        <v>2102656596</v>
-      </c>
-      <c r="H146" s="3">
-        <v>44464</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J146" s="3">
-        <v>44463</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L146" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL146" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM146" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN146" s="3">
-        <v>44463</v>
-      </c>
-      <c r="AO146" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG146" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BH146" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI146" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="147" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>3521101141456</v>
-      </c>
-      <c r="B147" s="3">
-        <v>44461</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D147" s="3">
-        <v>33544</v>
-      </c>
-      <c r="E147" s="3">
-        <v>44459</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G147" s="2">
-        <v>2102437748</v>
-      </c>
-      <c r="H147" s="3">
-        <v>44462</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J147" s="3">
-        <v>44461</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L147" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL147" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM147" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN147" s="3">
-        <v>44461</v>
-      </c>
-      <c r="AO147" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG147" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH147" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI147" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="148" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>352199352808</v>
-      </c>
-      <c r="B148" s="3">
-        <v>44440</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D148" s="3">
-        <v>26216</v>
-      </c>
-      <c r="E148" s="3">
-        <v>44436</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G148" s="2">
-        <v>2102554265</v>
-      </c>
-      <c r="H148" s="3">
-        <v>44441</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J148" s="3">
-        <v>44440</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L148" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL148" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM148" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN148" s="3">
-        <v>44440</v>
-      </c>
-      <c r="AO148" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG148" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="BH148" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI148" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="149" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>352199467916</v>
-      </c>
-      <c r="B149" s="3">
-        <v>44441</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D149" s="3">
-        <v>27525</v>
-      </c>
-      <c r="E149" s="3">
-        <v>44438</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G149" s="2">
-        <v>2102586371</v>
-      </c>
-      <c r="H149" s="3">
-        <v>44442</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J149" s="3">
-        <v>44441</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L149" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL149" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM149" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN149" s="3">
-        <v>44441</v>
-      </c>
-      <c r="AO149" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG149" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BH149" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI149" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="150" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>352199851532</v>
-      </c>
-      <c r="B150" s="3">
-        <v>44447</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D150" s="3">
-        <v>31725</v>
-      </c>
-      <c r="E150" s="3">
-        <v>44445</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G150" s="2">
-        <v>2102616609</v>
-      </c>
-      <c r="H150" s="3">
-        <v>44447</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J150" s="3">
-        <v>44447</v>
-      </c>
-      <c r="L150" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL150" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM150" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN150" s="3">
-        <v>44447</v>
-      </c>
-      <c r="BG150" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="BH150" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI150" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="151" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>3521101603475</v>
-      </c>
-      <c r="B151" s="3">
-        <v>44466</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D151" s="3">
-        <v>27946</v>
-      </c>
-      <c r="E151" s="3">
-        <v>44462</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G151" s="2">
-        <v>2102676808</v>
-      </c>
-      <c r="H151" s="3">
-        <v>44467</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J151" s="3">
-        <v>44466</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L151" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL151" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM151" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN151" s="3">
-        <v>44466</v>
-      </c>
-      <c r="AO151" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG151" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="BH151" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI151" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="152" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>3521101242648</v>
-      </c>
-      <c r="B152" s="3">
-        <v>44462</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D152" s="3">
-        <v>30022</v>
-      </c>
-      <c r="E152" s="3">
-        <v>44459</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G152" s="2">
-        <v>2102651479</v>
-      </c>
-      <c r="H152" s="3">
-        <v>44462</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J152" s="3">
-        <v>44462</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L152" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL152" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM152" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN152" s="3">
-        <v>44462</v>
-      </c>
-      <c r="AO152" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG152" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH152" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI152" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="153" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>3521101686401</v>
-      </c>
-      <c r="B153" s="3">
-        <v>44467</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D153" s="3">
-        <v>29304</v>
-      </c>
-      <c r="E153" s="3">
-        <v>44461</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G153" s="2">
-        <v>2102676895</v>
-      </c>
-      <c r="H153" s="3">
-        <v>44468</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J153" s="3">
-        <v>44467</v>
-      </c>
-      <c r="K153" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L153" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL153" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM153" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN153" s="3">
-        <v>44467</v>
-      </c>
-      <c r="AO153" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG153" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="BH153" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI153" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="154" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>352199536582</v>
-      </c>
-      <c r="B154" s="3">
-        <v>44441</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D154" s="3">
-        <v>32937</v>
-      </c>
-      <c r="E154" s="3">
-        <v>44438</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G154" s="2">
-        <v>2102586324</v>
-      </c>
-      <c r="H154" s="3">
-        <v>44442</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J154" s="3">
-        <v>44441</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L154" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL154" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM154" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN154" s="3">
-        <v>44441</v>
-      </c>
-      <c r="AO154" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG154" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="BH154" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI154" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="155" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>3521101521740</v>
-      </c>
-      <c r="B155" s="3">
-        <v>44466</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D155" s="3">
-        <v>27569</v>
-      </c>
-      <c r="E155" s="3">
-        <v>44464</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G155" s="2">
-        <v>2102557557</v>
-      </c>
-      <c r="H155" s="3">
-        <v>44466</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J155" s="3">
-        <v>44466</v>
-      </c>
-      <c r="K155" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L155" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL155" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM155" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN155" s="3">
-        <v>44466</v>
-      </c>
-      <c r="AO155" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE155" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG155" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH155" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI155" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="156" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>3521101733024</v>
-      </c>
-      <c r="B156" s="3">
-        <v>44468</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D156" s="3">
-        <v>32677</v>
-      </c>
-      <c r="E156" s="3">
-        <v>44463</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G156" s="2">
-        <v>2102677710</v>
-      </c>
-      <c r="H156" s="3">
-        <v>44468</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J156" s="3">
-        <v>44467</v>
-      </c>
-      <c r="K156" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L156" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL156" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM156" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN156" s="3">
-        <v>44467</v>
-      </c>
-      <c r="AO156" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BG156" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BH156" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI156" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BI735" xr:uid="{02542348-2930-4805-8CC0-C76E1896688B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BI735">
+  <autoFilter ref="A1:BI697"/>
+  <sortState ref="A2:BI735">
     <sortCondition ref="C2:C735"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
